--- a/SO SACH - LA/SO SACH/2016/152 - 155 - 16.xlsx
+++ b/SO SACH - LA/SO SACH/2016/152 - 155 - 16.xlsx
@@ -25,12 +25,12 @@
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'BANG KE NL'!$A$13:$CH$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NXT!$B$11:$O$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TH!$A$4:$O$490</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TH!$A$4:$O$488</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'THE KHO'!$A$1:$J$1</definedName>
     <definedName name="_NXT1">NXT!$M$12:$M$402</definedName>
     <definedName name="Dong">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="Dong3">IF(Loai='THE KHO'!$E$7,ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$B$5:$O$490</definedName>
+    <definedName name="DS">TH!$B$5:$O$488</definedName>
     <definedName name="DSGT1">BTGT!$B$7:$B$10</definedName>
     <definedName name="DSGT10">BTGT!$B$215:$B$221</definedName>
     <definedName name="DSGT11">BTGT!$B$241:$B$247</definedName>
@@ -46,15 +46,15 @@
     <definedName name="DSKH1">'[1]331'!$B$4:$B$35</definedName>
     <definedName name="DSKH2">'[1]331'!$B$35:$B$76</definedName>
     <definedName name="DSNL">NXT!$N$12:$S$553</definedName>
-    <definedName name="DSNX1">TH!$F$5:$F$624</definedName>
-    <definedName name="DSNX2">TH!$K$5:$K$624</definedName>
-    <definedName name="DSNX3">TH!$M$5:$M$624</definedName>
-    <definedName name="DSNX4">TH!$N$5:$N$624</definedName>
-    <definedName name="DSNX5">TH!$L$5:$L$624</definedName>
-    <definedName name="DSNX6">TH!$H$5:$H$624</definedName>
-    <definedName name="DSNX7">TH!$I$5:$I$624</definedName>
-    <definedName name="DSNX8">TH!$G$5:$G$624</definedName>
-    <definedName name="DSNXT1">NXT!$C$54:$C$67</definedName>
+    <definedName name="DSNX1">TH!$F$5:$F$622</definedName>
+    <definedName name="DSNX2">TH!$K$5:$K$622</definedName>
+    <definedName name="DSNX3">TH!$M$5:$M$622</definedName>
+    <definedName name="DSNX4">TH!$N$5:$N$622</definedName>
+    <definedName name="DSNX5">TH!$L$5:$L$622</definedName>
+    <definedName name="DSNX6">TH!$H$5:$H$622</definedName>
+    <definedName name="DSNX7">TH!$I$5:$I$622</definedName>
+    <definedName name="DSNX8">TH!$G$5:$G$622</definedName>
+    <definedName name="DSNXT1">NXT!$C$53:$C$66</definedName>
     <definedName name="DSSP1">BTGT!$B$7:$P$10</definedName>
     <definedName name="DSSP10">BTGT!$B$215:$P$221</definedName>
     <definedName name="DSSP11">BTGT!$B$241:$P$247</definedName>
@@ -67,15 +67,16 @@
     <definedName name="DSSP7">BTGT!$B$138:$P$141</definedName>
     <definedName name="DSSP8">BTGT!$B$161:$P$165</definedName>
     <definedName name="DSSP9">BTGT!$B$188:$P$193</definedName>
-    <definedName name="Loai">OFFSET(TH!$F$5,,,COUNTA(TH!$F$5:$F$40160))</definedName>
-    <definedName name="Loai01">OFFSET(TH!$O$5,,,COUNTA(TH!$O$5:$O$30160))</definedName>
-    <definedName name="Loai1">OFFSET(TH!$B$5,,,COUNTA(TH!$B$5:$B$30160))</definedName>
+    <definedName name="Loai">OFFSET(TH!$F$5,,,COUNTA(TH!$F$5:$F$40158))</definedName>
+    <definedName name="Loai01">OFFSET(TH!$O$5,,,COUNTA(TH!$O$5:$O$30158))</definedName>
+    <definedName name="Loai1">OFFSET(TH!$B$5,,,COUNTA(TH!$B$5:$B$30158))</definedName>
     <definedName name="Loai2">OFFSET(INDIRECT(ADDRESS(MATCH(RIGHT(TH!$C1,2),NXT,0)+11,3,,,"NXT")),0,0,COUNTIF(NXT,RIGHT(TH!$C1,2)),1)</definedName>
     <definedName name="Loai3">OFFSET(INDIRECT(ADDRESS(MATCH(RIGHT(TH!$C1,2),_NXT1,0)+11,14,,,"NXT")),0,0,COUNTIF(_NXT1,RIGHT(TH!$C1,2)),1)</definedName>
     <definedName name="NXT">NXT!$A$12:$A$390</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'BANG KE NL'!$A$1:$K$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'IN-NX'!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'SO CT'!$B$2:$M$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">TH!$E$13:$J$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'THE KHO'!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'BANG KE NL'!$11:$13</definedName>
     <definedName name="TH">IF(Loai1="x",ROW(Loai1)-1,"")</definedName>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="352">
   <si>
     <t>SỔ CHI TIẾT VẬT LIỆU, DỤNG CỤ (SẢN PHẨM, HÀNG HÓA)</t>
   </si>
@@ -1053,9 +1054,6 @@
     <t>X02</t>
   </si>
   <si>
-    <t>lố</t>
-  </si>
-  <si>
     <t>X03</t>
   </si>
   <si>
@@ -1162,9 +1160,6 @@
   </si>
   <si>
     <t>CP KHTS</t>
-  </si>
-  <si>
-    <t>N07</t>
   </si>
 </sst>
 </file>
@@ -3800,6 +3795,42 @@
     <xf numFmtId="164" fontId="60" fillId="0" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="26" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3813,42 +3844,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3892,19 +3887,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="35" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3918,6 +3907,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -4929,11 +4924,11 @@
   <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5082,13 +5077,13 @@
       <c r="M7" s="434"/>
     </row>
     <row r="8" spans="1:19" ht="20.25" customHeight="1">
-      <c r="B8" s="492" t="s">
+      <c r="B8" s="480" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="493" t="s">
+      <c r="C8" s="482" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="494" t="s">
+      <c r="D8" s="483" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="485" t="s">
@@ -5101,55 +5096,55 @@
       <c r="J8" s="485"/>
       <c r="K8" s="485"/>
       <c r="L8" s="485"/>
-      <c r="N8" s="480" t="s">
+      <c r="N8" s="492" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="480" t="s">
+      <c r="O8" s="492" t="s">
         <v>270</v>
       </c>
-      <c r="P8" s="480" t="s">
+      <c r="P8" s="492" t="s">
         <v>186</v>
       </c>
-      <c r="Q8" s="480" t="s">
+      <c r="Q8" s="492" t="s">
         <v>187</v>
       </c>
-      <c r="R8" s="480" t="s">
-        <v>324</v>
-      </c>
-      <c r="S8" s="480" t="s">
+      <c r="R8" s="492" t="s">
         <v>323</v>
       </c>
+      <c r="S8" s="492" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="20.25" customHeight="1">
-      <c r="B9" s="492"/>
-      <c r="C9" s="493"/>
-      <c r="D9" s="495"/>
+      <c r="B9" s="480"/>
+      <c r="C9" s="482"/>
+      <c r="D9" s="484"/>
       <c r="E9" s="485" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="485"/>
-      <c r="G9" s="484" t="s">
+      <c r="G9" s="481" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="484"/>
-      <c r="I9" s="484" t="s">
+      <c r="H9" s="481"/>
+      <c r="I9" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="484"/>
-      <c r="K9" s="484" t="s">
+      <c r="J9" s="481"/>
+      <c r="K9" s="481" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="484"/>
-      <c r="N9" s="481"/>
-      <c r="O9" s="481"/>
-      <c r="P9" s="481"/>
-      <c r="Q9" s="481"/>
-      <c r="R9" s="481"/>
-      <c r="S9" s="481"/>
+      <c r="L9" s="481"/>
+      <c r="N9" s="493"/>
+      <c r="O9" s="493"/>
+      <c r="P9" s="493"/>
+      <c r="Q9" s="493"/>
+      <c r="R9" s="493"/>
+      <c r="S9" s="493"/>
     </row>
     <row r="10" spans="1:19" ht="20.25" hidden="1" customHeight="1">
-      <c r="B10" s="492"/>
-      <c r="C10" s="493"/>
+      <c r="B10" s="480"/>
+      <c r="C10" s="482"/>
       <c r="D10" s="34"/>
       <c r="E10" s="43" t="s">
         <v>53</v>
@@ -5175,12 +5170,12 @@
       <c r="L10" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="482"/>
-      <c r="O10" s="482"/>
-      <c r="P10" s="482"/>
-      <c r="Q10" s="482"/>
+      <c r="N10" s="494"/>
+      <c r="O10" s="494"/>
+      <c r="P10" s="494"/>
+      <c r="Q10" s="494"/>
       <c r="R10" s="471"/>
-      <c r="S10" s="482"/>
+      <c r="S10" s="494"/>
     </row>
     <row r="11" spans="1:19" s="44" customFormat="1">
       <c r="B11" s="45" t="s">
@@ -5248,15 +5243,15 @@
         <v>0</v>
       </c>
       <c r="H12" s="46">
-        <f t="shared" ref="H12:H41" si="0">SUMIF(DSNX1,$C12,DSNX5)</f>
+        <f t="shared" ref="H12:H40" si="0">SUMIF(DSNX1,$C12,DSNX5)</f>
         <v>0</v>
       </c>
       <c r="I12" s="46">
-        <f t="shared" ref="I12:I41" si="1">SUMIF(DSNX1,$C12,DSNX3)</f>
+        <f t="shared" ref="I12:I40" si="1">SUMIF(DSNX1,$C12,DSNX3)</f>
         <v>100</v>
       </c>
       <c r="J12" s="46">
-        <f t="shared" ref="J12:J41" si="2">SUMIF(DSNX1,$C12,DSNX4)</f>
+        <f t="shared" ref="J12:J40" si="2">SUMIF(DSNX1,$C12,DSNX4)</f>
         <v>3544444</v>
       </c>
       <c r="K12" s="46">
@@ -5272,7 +5267,7 @@
         <v>NL</v>
       </c>
       <c r="N12" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O12" s="41" t="s">
         <v>161</v>
@@ -5281,7 +5276,7 @@
         <v>330593933</v>
       </c>
       <c r="Q12" s="226" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R12" s="226"/>
       <c r="S12" s="226" t="s">
@@ -5290,7 +5285,7 @@
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1">
       <c r="A13" s="40" t="str">
-        <f t="shared" ref="A13:A40" si="5">IF(B13&lt;&gt;"","VL","")</f>
+        <f t="shared" ref="A13:A19" si="5">IF(B13&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B13" s="475">
@@ -5310,7 +5305,7 @@
         <v>24539130</v>
       </c>
       <c r="G13" s="46">
-        <f t="shared" ref="G13:G41" si="6">SUMIF(DSNX1,$C13,DSNX2)</f>
+        <f t="shared" ref="G13:G40" si="6">SUMIF(DSNX1,$C13,DSNX2)</f>
         <v>0</v>
       </c>
       <c r="H13" s="46">
@@ -5338,7 +5333,7 @@
         <v>NL</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O13" s="226" t="s">
         <v>161</v>
@@ -5347,7 +5342,7 @@
         <v>320775664</v>
       </c>
       <c r="Q13" s="226" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R13" s="226"/>
       <c r="S13" s="226" t="s">
@@ -5360,7 +5355,7 @@
         <v>VL</v>
       </c>
       <c r="B14" s="475">
-        <f t="shared" ref="B14:B40" si="8">IF(C14&lt;&gt;"",B13+1,"")</f>
+        <f t="shared" ref="B14:B39" si="8">IF(C14&lt;&gt;"",B13+1,"")</f>
         <v>3</v>
       </c>
       <c r="C14" s="37" t="s">
@@ -5413,7 +5408,7 @@
         <v>320892558</v>
       </c>
       <c r="Q14" s="226" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R14" s="226"/>
       <c r="S14" s="226" t="s">
@@ -5470,7 +5465,7 @@
         <v>NL</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O15" s="178" t="s">
         <v>161</v>
@@ -5479,7 +5474,7 @@
         <v>320892578</v>
       </c>
       <c r="Q15" s="226" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R15" s="226"/>
       <c r="S15" s="226" t="s">
@@ -5536,7 +5531,7 @@
         <v>NL</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O16" s="178" t="s">
         <v>161</v>
@@ -5545,7 +5540,7 @@
         <v>321179471</v>
       </c>
       <c r="Q16" s="226" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R16" s="226"/>
       <c r="S16" s="226" t="s">
@@ -5602,7 +5597,7 @@
         <v>NL</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O17" s="178" t="s">
         <v>161</v>
@@ -5611,7 +5606,7 @@
         <v>324478047</v>
       </c>
       <c r="Q17" s="226" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R17" s="226"/>
       <c r="S17" s="226" t="s">
@@ -5668,7 +5663,7 @@
         <v>NL</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O18" s="178" t="s">
         <v>161</v>
@@ -5677,7 +5672,7 @@
         <v>321413712</v>
       </c>
       <c r="Q18" s="226" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R18" s="226"/>
       <c r="S18" s="226" t="s">
@@ -5743,7 +5738,7 @@
         <v>320744085</v>
       </c>
       <c r="Q19" s="226" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R19" s="226"/>
       <c r="S19" s="226" t="s">
@@ -5751,49 +5746,49 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="40" t="str">
-        <f t="shared" ref="A20:A21" si="9">IF(B20&lt;&gt;"","VL","")</f>
-        <v>VL</v>
+      <c r="A20" s="40" t="e">
+        <f>IF(#REF!&lt;&gt;"","VL","")</f>
+        <v>#REF!</v>
       </c>
       <c r="B20" s="475">
-        <f t="shared" ref="B20:B21" si="10">IF(C20&lt;&gt;"",B19+1,"")</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C20" s="414" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="415" t="s">
-        <v>316</v>
-      </c>
-      <c r="E20" s="416">
-        <v>0</v>
-      </c>
-      <c r="F20" s="416">
-        <v>0</v>
-      </c>
-      <c r="G20" s="46">
+      <c r="C20" s="421" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="422" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="423">
+        <v>93800</v>
+      </c>
+      <c r="F20" s="423">
+        <v>28140000</v>
+      </c>
+      <c r="G20" s="478">
         <f t="shared" si="6"/>
-        <v>125</v>
-      </c>
-      <c r="H20" s="46">
+        <v>0</v>
+      </c>
+      <c r="H20" s="478">
         <f t="shared" si="0"/>
-        <v>4243750</v>
-      </c>
-      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="I20" s="478">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="J20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="478">
         <f t="shared" si="2"/>
-        <v>4243750</v>
-      </c>
-      <c r="K20" s="416">
-        <f t="shared" ref="K20:K24" si="11">E20+G20-I20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="416">
-        <f t="shared" ref="L20:L24" si="12">F20+H20-J20</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="479">
+        <f t="shared" ref="K20:K23" si="9">E20+G20-I20</f>
+        <v>93800</v>
+      </c>
+      <c r="L20" s="479">
+        <f t="shared" ref="L20:L23" si="10">F20+H20-J20</f>
+        <v>28140000</v>
       </c>
       <c r="M20" s="437" t="str">
         <f t="shared" si="7"/>
@@ -5809,7 +5804,7 @@
         <v>320807672</v>
       </c>
       <c r="Q20" s="226" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R20" s="226"/>
       <c r="S20" s="226" t="s">
@@ -5818,24 +5813,24 @@
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
       <c r="A21" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(B20&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B21" s="475">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="C21" s="421" t="s">
-        <v>86</v>
+      <c r="C21" s="424" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="422" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="423">
-        <v>93800</v>
+        <v>48700</v>
       </c>
       <c r="F21" s="423">
-        <v>28140000</v>
+        <v>19480000</v>
       </c>
       <c r="G21" s="478">
         <f t="shared" si="6"/>
@@ -5854,19 +5849,19 @@
         <v>0</v>
       </c>
       <c r="K21" s="479">
-        <f t="shared" si="11"/>
-        <v>93800</v>
+        <f t="shared" si="9"/>
+        <v>48700</v>
       </c>
       <c r="L21" s="479">
-        <f t="shared" si="12"/>
-        <v>28140000</v>
+        <f t="shared" si="10"/>
+        <v>19480000</v>
       </c>
       <c r="M21" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O21" s="41" t="s">
         <v>161</v>
@@ -5875,7 +5870,7 @@
         <v>320044169</v>
       </c>
       <c r="Q21" s="226" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R21" s="226"/>
       <c r="S21" s="226" t="s">
@@ -5884,24 +5879,24 @@
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
       <c r="A22" s="40" t="str">
-        <f t="shared" ref="A22:A24" si="13">IF(B22&lt;&gt;"","VL","")</f>
+        <f t="shared" ref="A22:A24" si="11">IF(B21&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B22" s="475">
-        <f t="shared" ref="B22:B24" si="14">IF(C22&lt;&gt;"",B21+1,"")</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="C22" s="424" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D22" s="422" t="s">
         <v>78</v>
       </c>
       <c r="E22" s="423">
-        <v>48700</v>
+        <v>12300</v>
       </c>
       <c r="F22" s="423">
-        <v>19480000</v>
+        <v>2890500</v>
       </c>
       <c r="G22" s="478">
         <f t="shared" si="6"/>
@@ -5920,12 +5915,12 @@
         <v>0</v>
       </c>
       <c r="K22" s="479">
-        <f t="shared" si="11"/>
-        <v>48700</v>
+        <f t="shared" si="9"/>
+        <v>12300</v>
       </c>
       <c r="L22" s="479">
-        <f t="shared" si="12"/>
-        <v>19480000</v>
+        <f t="shared" si="10"/>
+        <v>2890500</v>
       </c>
       <c r="M22" s="437" t="str">
         <f t="shared" si="7"/>
@@ -5941,7 +5936,7 @@
         <v>320881573</v>
       </c>
       <c r="Q22" s="226" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R22" s="226"/>
       <c r="S22" s="226" t="s">
@@ -5950,24 +5945,24 @@
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
       <c r="A23" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>VL</v>
       </c>
       <c r="B23" s="475">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="C23" s="424" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="422" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="423">
-        <v>12300</v>
+        <v>295214</v>
       </c>
       <c r="F23" s="423">
-        <v>2890500</v>
+        <v>102435290</v>
       </c>
       <c r="G23" s="478">
         <f t="shared" si="6"/>
@@ -5986,19 +5981,19 @@
         <v>0</v>
       </c>
       <c r="K23" s="479">
-        <f t="shared" si="11"/>
-        <v>12300</v>
+        <f t="shared" si="9"/>
+        <v>295214</v>
       </c>
       <c r="L23" s="479">
-        <f t="shared" si="12"/>
-        <v>2890500</v>
+        <f t="shared" si="10"/>
+        <v>102435290</v>
       </c>
       <c r="M23" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O23" s="41" t="s">
         <v>161</v>
@@ -6007,7 +6002,7 @@
         <v>320876558</v>
       </c>
       <c r="Q23" s="226" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R23" s="226"/>
       <c r="S23" s="226" t="s">
@@ -6016,48 +6011,48 @@
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
       <c r="A24" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>VL</v>
       </c>
       <c r="B24" s="475">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="C24" s="424" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="422" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="423">
-        <v>295214</v>
+        <v>6600</v>
       </c>
       <c r="F24" s="423">
-        <v>102435290</v>
-      </c>
-      <c r="G24" s="478">
+        <v>3597000</v>
+      </c>
+      <c r="G24" s="459">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="478">
+      <c r="H24" s="459">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="478">
+      <c r="I24" s="459">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="478">
+      <c r="J24" s="459">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="479">
-        <f t="shared" si="11"/>
-        <v>295214</v>
-      </c>
-      <c r="L24" s="479">
-        <f t="shared" si="12"/>
-        <v>102435290</v>
+      <c r="K24" s="423">
+        <f t="shared" ref="K24" si="12">E24+G24-I24</f>
+        <v>6600</v>
+      </c>
+      <c r="L24" s="423">
+        <f t="shared" ref="L24" si="13">F24+H24-J24</f>
+        <v>3597000</v>
       </c>
       <c r="M24" s="437" t="str">
         <f t="shared" si="7"/>
@@ -6082,48 +6077,48 @@
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
       <c r="A25" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B24&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B25" s="475">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="C25" s="424" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="422" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="423">
-        <v>6600</v>
-      </c>
-      <c r="F25" s="423">
-        <v>3597000</v>
-      </c>
-      <c r="G25" s="459">
+      <c r="C25" s="417" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="418" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="419">
+        <v>9928</v>
+      </c>
+      <c r="F25" s="419">
+        <v>57392400</v>
+      </c>
+      <c r="G25" s="460">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H25" s="459">
+      <c r="H25" s="460">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="459">
+      <c r="I25" s="460">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="459">
+      <c r="J25" s="460">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="423">
-        <f t="shared" ref="K25" si="15">E25+G25-I25</f>
-        <v>6600</v>
-      </c>
-      <c r="L25" s="423">
-        <f t="shared" ref="L25" si="16">F25+H25-J25</f>
-        <v>3597000</v>
+      <c r="K25" s="461">
+        <f t="shared" ref="K25:K32" si="14">E25+G25-I25</f>
+        <v>9928</v>
+      </c>
+      <c r="L25" s="461">
+        <f t="shared" ref="L25:L32" si="15">F25+H25-J25</f>
+        <v>57392400</v>
       </c>
       <c r="M25" s="437" t="str">
         <f t="shared" si="7"/>
@@ -6148,7 +6143,7 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
       <c r="A26" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B25&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B26" s="475">
@@ -6156,16 +6151,16 @@
         <v>15</v>
       </c>
       <c r="C26" s="417" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D26" s="418" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="419">
-        <v>9928</v>
+        <v>13938</v>
       </c>
       <c r="F26" s="419">
-        <v>57392400</v>
+        <v>62251600</v>
       </c>
       <c r="G26" s="460">
         <f t="shared" si="6"/>
@@ -6184,12 +6179,12 @@
         <v>0</v>
       </c>
       <c r="K26" s="461">
-        <f t="shared" ref="K26:K33" si="17">E26+G26-I26</f>
-        <v>9928</v>
+        <f t="shared" si="14"/>
+        <v>13938</v>
       </c>
       <c r="L26" s="461">
-        <f t="shared" ref="L26:L33" si="18">F26+H26-J26</f>
-        <v>57392400</v>
+        <f t="shared" si="15"/>
+        <v>62251600</v>
       </c>
       <c r="M26" s="437" t="str">
         <f t="shared" si="7"/>
@@ -6214,7 +6209,7 @@
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
       <c r="A27" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B26&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B27" s="475">
@@ -6222,16 +6217,16 @@
         <v>16</v>
       </c>
       <c r="C27" s="417" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D27" s="418" t="s">
         <v>77</v>
       </c>
       <c r="E27" s="419">
-        <v>13938</v>
+        <v>7380</v>
       </c>
       <c r="F27" s="419">
-        <v>62251600</v>
+        <v>106222000</v>
       </c>
       <c r="G27" s="460">
         <f t="shared" si="6"/>
@@ -6250,12 +6245,12 @@
         <v>0</v>
       </c>
       <c r="K27" s="461">
-        <f t="shared" si="17"/>
-        <v>13938</v>
+        <f t="shared" si="14"/>
+        <v>7380</v>
       </c>
       <c r="L27" s="461">
-        <f t="shared" si="18"/>
-        <v>62251600</v>
+        <f t="shared" si="15"/>
+        <v>106222000</v>
       </c>
       <c r="M27" s="437" t="str">
         <f t="shared" si="7"/>
@@ -6280,7 +6275,7 @@
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
       <c r="A28" s="40" t="str">
-        <f t="shared" ref="A28" si="19">IF(B28&lt;&gt;"","VL","")</f>
+        <f t="shared" ref="A28" si="16">IF(B27&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B28" s="475">
@@ -6288,40 +6283,36 @@
         <v>17</v>
       </c>
       <c r="C28" s="417" t="s">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="D28" s="418" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="419">
-        <v>7380</v>
-      </c>
-      <c r="F28" s="419">
-        <v>106222000</v>
-      </c>
+      <c r="E28" s="419"/>
+      <c r="F28" s="419"/>
       <c r="G28" s="460">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="H28" s="460">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13800000</v>
       </c>
       <c r="I28" s="460">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="J28" s="460">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13800000</v>
       </c>
       <c r="K28" s="461">
-        <f t="shared" si="17"/>
-        <v>7380</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L28" s="461">
-        <f t="shared" si="18"/>
-        <v>106222000</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M28" s="437" t="str">
         <f t="shared" si="7"/>
@@ -6347,7 +6338,7 @@
     </row>
     <row r="29" spans="1:20" s="198" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B28&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B29" s="475">
@@ -6355,7 +6346,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="417" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D29" s="418" t="s">
         <v>77</v>
@@ -6364,26 +6355,26 @@
       <c r="F29" s="419"/>
       <c r="G29" s="460">
         <f t="shared" si="6"/>
-        <v>1150</v>
+        <v>150</v>
       </c>
       <c r="H29" s="460">
         <f t="shared" si="0"/>
-        <v>13800000</v>
+        <v>1425000</v>
       </c>
       <c r="I29" s="460">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>150</v>
       </c>
       <c r="J29" s="460">
         <f t="shared" si="2"/>
-        <v>13800000</v>
-      </c>
-      <c r="K29" s="461">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="461">
-        <f t="shared" si="18"/>
+        <v>1425000</v>
+      </c>
+      <c r="K29" s="419">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="419">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M29" s="437" t="str">
@@ -6409,7 +6400,7 @@
     </row>
     <row r="30" spans="1:20" s="198" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B29&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B30" s="475">
@@ -6417,7 +6408,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="417" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D30" s="418" t="s">
         <v>77</v>
@@ -6426,26 +6417,26 @@
       <c r="F30" s="419"/>
       <c r="G30" s="460">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="H30" s="460">
         <f t="shared" si="0"/>
-        <v>1425000</v>
+        <v>6800000</v>
       </c>
       <c r="I30" s="460">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="J30" s="460">
         <f t="shared" si="2"/>
-        <v>1425000</v>
+        <v>6800000</v>
       </c>
       <c r="K30" s="419">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L30" s="419">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M30" s="437" t="str">
@@ -6471,7 +6462,7 @@
     </row>
     <row r="31" spans="1:20" s="198" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B30&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B31" s="475">
@@ -6479,7 +6470,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="417" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D31" s="418" t="s">
         <v>77</v>
@@ -6492,7 +6483,7 @@
       </c>
       <c r="H31" s="460">
         <f t="shared" si="0"/>
-        <v>6800000</v>
+        <v>1000000</v>
       </c>
       <c r="I31" s="460">
         <f t="shared" si="1"/>
@@ -6500,14 +6491,14 @@
       </c>
       <c r="J31" s="460">
         <f t="shared" si="2"/>
-        <v>6800000</v>
+        <v>1000000</v>
       </c>
       <c r="K31" s="419">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L31" s="419">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M31" s="437" t="str">
@@ -6534,15 +6525,15 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B31&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="B32" s="475">
-        <f t="shared" ref="B32:B39" si="20">IF(C32&lt;&gt;"",B31+1,"")</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="C32" s="417" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D32" s="418" t="s">
         <v>77</v>
@@ -6551,26 +6542,26 @@
       <c r="F32" s="419"/>
       <c r="G32" s="460">
         <f t="shared" si="6"/>
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="H32" s="460">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>11346000</v>
       </c>
       <c r="I32" s="460">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="J32" s="460">
         <f t="shared" si="2"/>
-        <v>1000000</v>
+        <v>11346000</v>
       </c>
       <c r="K32" s="419">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L32" s="419">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M32" s="437" t="str">
@@ -6596,43 +6587,39 @@
     </row>
     <row r="33" spans="1:19" ht="18.75" customHeight="1">
       <c r="A33" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B32&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
-      <c r="B33" s="475">
-        <f t="shared" si="20"/>
-        <v>22</v>
-      </c>
-      <c r="C33" s="417" t="s">
-        <v>301</v>
-      </c>
-      <c r="D33" s="418" t="s">
-        <v>77</v>
-      </c>
+      <c r="B33" s="475" t="str">
+        <f t="shared" ref="B31:B38" si="17">IF(C33&lt;&gt;"",B32+1,"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="417"/>
+      <c r="D33" s="418"/>
       <c r="E33" s="419"/>
       <c r="F33" s="419"/>
       <c r="G33" s="460">
         <f t="shared" si="6"/>
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="H33" s="460">
         <f t="shared" si="0"/>
-        <v>11346000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="460">
         <f t="shared" si="1"/>
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="J33" s="460">
         <f t="shared" si="2"/>
-        <v>11346000</v>
+        <v>0</v>
       </c>
       <c r="K33" s="419">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K33:K41" si="18">E33+G33-I33</f>
         <v>0</v>
       </c>
       <c r="L33" s="419">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="L33:L41" si="19">F33+H33-J33</f>
         <v>0</v>
       </c>
       <c r="M33" s="437" t="str">
@@ -6658,11 +6645,11 @@
     </row>
     <row r="34" spans="1:19" ht="18.75" customHeight="1">
       <c r="A34" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B33&lt;&gt;"","VL","")</f>
         <v/>
       </c>
       <c r="B34" s="475" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C34" s="417"/>
@@ -6686,11 +6673,11 @@
         <v>0</v>
       </c>
       <c r="K34" s="419">
-        <f t="shared" ref="K34:K42" si="21">E34+G34-I34</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L34" s="419">
-        <f t="shared" ref="L34:L42" si="22">F34+H34-J34</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M34" s="437" t="str">
@@ -6716,11 +6703,11 @@
     </row>
     <row r="35" spans="1:19" ht="18.75" customHeight="1">
       <c r="A35" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B34&lt;&gt;"","VL","")</f>
         <v/>
       </c>
       <c r="B35" s="475" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C35" s="417"/>
@@ -6744,11 +6731,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="419">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L35" s="419">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M35" s="437" t="str">
@@ -6765,10 +6752,10 @@
         <v>370698949</v>
       </c>
       <c r="Q35" s="226" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R35" s="226" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S35" s="226" t="s">
         <v>219</v>
@@ -6776,11 +6763,11 @@
     </row>
     <row r="36" spans="1:19" ht="18.75" customHeight="1">
       <c r="A36" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B35&lt;&gt;"","VL","")</f>
         <v/>
       </c>
       <c r="B36" s="475" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C36" s="417"/>
@@ -6804,11 +6791,11 @@
         <v>0</v>
       </c>
       <c r="K36" s="419">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L36" s="419">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M36" s="437" t="str">
@@ -6834,11 +6821,11 @@
     </row>
     <row r="37" spans="1:19" ht="18.75" customHeight="1">
       <c r="A37" s="40" t="str">
-        <f t="shared" ref="A37" si="23">IF(B37&lt;&gt;"","VL","")</f>
+        <f t="shared" ref="A37" si="20">IF(B36&lt;&gt;"","VL","")</f>
         <v/>
       </c>
       <c r="B37" s="475" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C37" s="417"/>
@@ -6862,11 +6849,11 @@
         <v>0</v>
       </c>
       <c r="K37" s="419">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L37" s="419">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M37" s="437" t="str">
@@ -6892,11 +6879,11 @@
     </row>
     <row r="38" spans="1:19" ht="18.75" customHeight="1">
       <c r="A38" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B37&lt;&gt;"","VL","")</f>
         <v/>
       </c>
       <c r="B38" s="475" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C38" s="417"/>
@@ -6920,11 +6907,11 @@
         <v>0</v>
       </c>
       <c r="K38" s="419">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L38" s="419">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M38" s="437" t="str">
@@ -6950,11 +6937,11 @@
     </row>
     <row r="39" spans="1:19" ht="18.75" customHeight="1">
       <c r="A39" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B38&lt;&gt;"","VL","")</f>
         <v/>
       </c>
       <c r="B39" s="475" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C39" s="417"/>
@@ -6978,11 +6965,11 @@
         <v>0</v>
       </c>
       <c r="K39" s="419">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L39" s="419">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M39" s="437" t="str">
@@ -7008,11 +6995,11 @@
     </row>
     <row r="40" spans="1:19" ht="18.75" customHeight="1">
       <c r="A40" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(B39&lt;&gt;"","VL","")</f>
         <v/>
       </c>
       <c r="B40" s="475" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B40:B41" si="21">IF(C40&lt;&gt;"",B39+1,"")</f>
         <v/>
       </c>
       <c r="C40" s="417"/>
@@ -7036,11 +7023,11 @@
         <v>0</v>
       </c>
       <c r="K40" s="419">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L40" s="419">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M40" s="437" t="str">
@@ -7066,39 +7053,39 @@
     </row>
     <row r="41" spans="1:19" ht="18.75" customHeight="1">
       <c r="A41" s="40" t="str">
-        <f t="shared" ref="A41:A43" si="24">IF(B41&lt;&gt;"","VL","")</f>
+        <f t="shared" ref="A41:A43" si="22">IF(B40&lt;&gt;"","VL","")</f>
         <v/>
       </c>
       <c r="B41" s="475" t="str">
-        <f t="shared" ref="B41:B42" si="25">IF(C41&lt;&gt;"",B40+1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C41" s="417"/>
       <c r="D41" s="418"/>
       <c r="E41" s="419"/>
       <c r="F41" s="419"/>
-      <c r="G41" s="460">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="460">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="460">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="460">
-        <f t="shared" si="2"/>
+      <c r="G41" s="420">
+        <f t="shared" ref="G41" si="23">SUMIF(DSNX1,$C41,DSNX2)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="420">
+        <f t="shared" ref="H41" si="24">SUMIF(DSNX1,$C41,DSNX5)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="420">
+        <f t="shared" ref="I41" si="25">SUMIF(DSNX1,$C41,DSNX3)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="420">
+        <f t="shared" ref="J41" si="26">SUMIF(DSNX1,$C41,DSNX4)</f>
         <v>0</v>
       </c>
       <c r="K41" s="419">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L41" s="419">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M41" s="437" t="str">
@@ -7124,41 +7111,23 @@
     </row>
     <row r="42" spans="1:19" ht="18" customHeight="1">
       <c r="A42" s="40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="B42" s="475" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="C42" s="417"/>
-      <c r="D42" s="418"/>
-      <c r="E42" s="419"/>
-      <c r="F42" s="419"/>
-      <c r="G42" s="420">
-        <f t="shared" ref="G42" si="26">SUMIF(DSNX1,$C42,DSNX2)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="420">
-        <f t="shared" ref="H42" si="27">SUMIF(DSNX1,$C42,DSNX5)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="420">
-        <f t="shared" ref="I42" si="28">SUMIF(DSNX1,$C42,DSNX3)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="420">
-        <f t="shared" ref="J42" si="29">SUMIF(DSNX1,$C42,DSNX4)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="419">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="419">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+        <f>IF(C42&lt;&gt;"",#REF!+1,"")</f>
+        <v/>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
       <c r="M42" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
@@ -7182,23 +7151,46 @@
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1">
       <c r="A43" s="40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="B43" s="475" t="str">
-        <f>IF(C43&lt;&gt;"",#REF!+1,"")</f>
-        <v/>
-      </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="B43" s="470"/>
+      <c r="C43" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36">
+        <f>SUM(E12:E42)</f>
+        <v>497676.7</v>
+      </c>
+      <c r="F43" s="36">
+        <f>SUM(F12:F42)</f>
+        <v>526519887</v>
+      </c>
+      <c r="G43" s="36">
+        <f>SUM(G12:G42)</f>
+        <v>11120</v>
+      </c>
+      <c r="H43" s="36">
+        <f>SUM(H12:H42)</f>
+        <v>173226239</v>
+      </c>
+      <c r="I43" s="36">
+        <f>SUM(I12:I42)</f>
+        <v>5100</v>
+      </c>
+      <c r="J43" s="36">
+        <f>SUM(J12:J42)</f>
+        <v>56890299</v>
+      </c>
+      <c r="K43" s="36">
+        <f>SUM(K12:K42)</f>
+        <v>503696.7</v>
+      </c>
+      <c r="L43" s="36">
+        <f>SUM(L12:L42)</f>
+        <v>642855827</v>
+      </c>
       <c r="M43" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
@@ -7222,46 +7214,20 @@
     </row>
     <row r="44" spans="1:19" ht="19.5" customHeight="1">
       <c r="A44" s="40" t="str">
-        <f>IF(B45&lt;&gt;"","VL","")</f>
-        <v/>
-      </c>
-      <c r="B44" s="470"/>
-      <c r="C44" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36">
-        <f t="shared" ref="E44:L44" si="30">SUM(E12:E43)</f>
-        <v>497676.7</v>
-      </c>
-      <c r="F44" s="36">
-        <f t="shared" si="30"/>
-        <v>526519887</v>
-      </c>
-      <c r="G44" s="36">
-        <f t="shared" si="30"/>
-        <v>11245</v>
-      </c>
-      <c r="H44" s="36">
-        <f t="shared" si="30"/>
-        <v>177469989</v>
-      </c>
-      <c r="I44" s="36">
-        <f t="shared" si="30"/>
-        <v>5225</v>
-      </c>
-      <c r="J44" s="36">
-        <f t="shared" si="30"/>
-        <v>61134049</v>
-      </c>
-      <c r="K44" s="36">
-        <f t="shared" si="30"/>
-        <v>503696.7</v>
-      </c>
-      <c r="L44" s="36">
-        <f t="shared" si="30"/>
-        <v>642855827</v>
-      </c>
+        <f>IF(B44&lt;&gt;"","VL","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="476"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
       <c r="M44" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
@@ -7285,17 +7251,46 @@
     </row>
     <row r="45" spans="1:19" ht="19.5" customHeight="1">
       <c r="A45" s="40"/>
-      <c r="B45" s="476"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
+      <c r="B45" s="477">
+        <f>IF(C45&lt;&gt;"",ROW()-(ROW()-1),"")</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="46">
+        <v>46400</v>
+      </c>
+      <c r="F45" s="46">
+        <v>858400000</v>
+      </c>
+      <c r="G45" s="46">
+        <f t="shared" ref="G45:G49" si="27">SUMIF(DSNX1,$C45,DSNX2)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="46">
+        <f t="shared" ref="H45:H49" si="28">SUMIF(DSNX1,$C45,DSNX5)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="46">
+        <f t="shared" ref="I45:I49" si="29">SUMIF(DSNX1,$C45,DSNX3)</f>
+        <v>38400</v>
+      </c>
+      <c r="J45" s="46">
+        <f t="shared" ref="J45:J49" si="30">SUMIF(DSNX1,$C45,DSNX4)</f>
+        <v>710400000</v>
+      </c>
+      <c r="K45" s="46">
+        <f t="shared" ref="K45:L48" si="31">E45+G45-I45</f>
+        <v>8000</v>
+      </c>
+      <c r="L45" s="46">
+        <f t="shared" si="31"/>
+        <v>148000000</v>
+      </c>
       <c r="M45" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
@@ -7319,48 +7314,48 @@
     </row>
     <row r="46" spans="1:19" ht="19.5" customHeight="1">
       <c r="A46" s="40" t="str">
-        <f>IF(B46&lt;&gt;"","NL","")</f>
+        <f>IF(B45&lt;&gt;"","NL","")</f>
         <v>NL</v>
       </c>
-      <c r="B46" s="477">
-        <f>IF(C46&lt;&gt;"",ROW()-(ROW()-1),"")</f>
-        <v>1</v>
+      <c r="B46" s="475">
+        <f>IF(C46&lt;&gt;"",B45+1,"")</f>
+        <v>2</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D46" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="46">
-        <v>46400</v>
-      </c>
-      <c r="F46" s="46">
-        <v>858400000</v>
+      <c r="E46" s="38">
+        <v>132000</v>
+      </c>
+      <c r="F46" s="38">
+        <v>1914000000</v>
       </c>
       <c r="G46" s="46">
-        <f t="shared" ref="G46:G50" si="31">SUMIF(DSNX1,$C46,DSNX2)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H46" s="46">
-        <f t="shared" ref="H46:H50" si="32">SUMIF(DSNX1,$C46,DSNX5)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I46" s="46">
-        <f t="shared" ref="I46:I50" si="33">SUMIF(DSNX1,$C46,DSNX3)</f>
-        <v>38400</v>
+        <f t="shared" si="29"/>
+        <v>132000</v>
       </c>
       <c r="J46" s="46">
-        <f t="shared" ref="J46:J50" si="34">SUMIF(DSNX1,$C46,DSNX4)</f>
-        <v>710400000</v>
-      </c>
-      <c r="K46" s="46">
-        <f t="shared" ref="K46:L49" si="35">E46+G46-I46</f>
-        <v>8000</v>
-      </c>
-      <c r="L46" s="46">
-        <f t="shared" si="35"/>
-        <v>148000000</v>
+        <f t="shared" si="30"/>
+        <v>1914000000</v>
+      </c>
+      <c r="K46" s="38">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="38">
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="M46" s="437" t="str">
         <f t="shared" si="7"/>
@@ -7385,47 +7380,45 @@
     </row>
     <row r="47" spans="1:19" ht="19.5" customHeight="1">
       <c r="A47" s="40" t="str">
-        <f t="shared" ref="A47" si="36">IF(B47&lt;&gt;"","NL","")</f>
+        <f t="shared" ref="A47" si="32">IF(B46&lt;&gt;"","NL","")</f>
         <v>NL</v>
       </c>
-      <c r="B47" s="475">
-        <f>IF(C47&lt;&gt;"",B46+1,"")</f>
-        <v>2</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="B47" s="475" t="str">
+        <f t="shared" ref="B47:B50" si="33">IF(C47&lt;&gt;"",B46+1,"")</f>
+        <v/>
+      </c>
+      <c r="C47" s="37"/>
       <c r="D47" s="50" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="38">
-        <v>132000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="38">
-        <v>1914000000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="46">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="46">
+        <f>SUMIF(DSNX1,$C47,DSNX5)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="46">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="38">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H47" s="46">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="46">
-        <f t="shared" si="33"/>
-        <v>132000</v>
-      </c>
-      <c r="J47" s="46">
-        <f t="shared" si="34"/>
-        <v>1914000000</v>
-      </c>
-      <c r="K47" s="38">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
       <c r="L47" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M47" s="437" t="str">
@@ -7445,7 +7438,7 @@
         <v>166</v>
       </c>
       <c r="R47" s="226" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S47" s="226" t="s">
         <v>54</v>
@@ -7453,11 +7446,11 @@
     </row>
     <row r="48" spans="1:19" ht="19.5" customHeight="1">
       <c r="A48" s="40" t="str">
-        <f t="shared" ref="A48:A51" si="37">IF(B48&lt;&gt;"","NL","")</f>
+        <f t="shared" ref="A48:A51" si="34">IF(B47&lt;&gt;"","NL","")</f>
         <v/>
       </c>
       <c r="B48" s="475" t="str">
-        <f t="shared" ref="B48:B51" si="38">IF(C48&lt;&gt;"",B47+1,"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C48" s="37"/>
@@ -7471,27 +7464,27 @@
         <v>0</v>
       </c>
       <c r="G48" s="46">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="46">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="46">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="38">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H48" s="46">
-        <f>SUMIF(DSNX1,$C48,DSNX5)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="46">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="46">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="38">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
       <c r="L48" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M48" s="437" t="str">
@@ -7511,7 +7504,7 @@
         <v>166</v>
       </c>
       <c r="R48" s="226" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S48" s="226" t="s">
         <v>54</v>
@@ -7519,11 +7512,11 @@
     </row>
     <row r="49" spans="1:20" ht="19.5" customHeight="1">
       <c r="A49" s="40" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="B49" s="475" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C49" s="37"/>
@@ -7537,27 +7530,27 @@
         <v>0</v>
       </c>
       <c r="G49" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H49" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I49" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J49" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K49" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="K49" si="35">E49+G49-I49</f>
         <v>0</v>
       </c>
       <c r="L49" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="L49" si="36">F49+H49-J49</f>
         <v>0</v>
       </c>
       <c r="M49" s="437" t="str">
@@ -7577,7 +7570,7 @@
         <v>166</v>
       </c>
       <c r="R49" s="226" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S49" s="226" t="s">
         <v>54</v>
@@ -7585,47 +7578,23 @@
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="40" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="B50" s="475" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="38">
-        <v>0</v>
-      </c>
-      <c r="F50" s="38">
-        <v>0</v>
-      </c>
-      <c r="G50" s="46">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="46">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="46">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="46">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="38">
-        <f t="shared" ref="K50" si="39">E50+G50-I50</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="38">
-        <f t="shared" ref="L50" si="40">F50+H50-J50</f>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
       <c r="M50" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
@@ -7649,23 +7618,46 @@
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="B51" s="470"/>
+      <c r="C51" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="36">
+        <f t="shared" ref="E51:L51" si="37">SUM(E45:E48)</f>
+        <v>178400</v>
+      </c>
+      <c r="F51" s="36">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="B51" s="475" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
+        <v>2772400000</v>
+      </c>
+      <c r="G51" s="36">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="36">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="36">
+        <f t="shared" si="37"/>
+        <v>170400</v>
+      </c>
+      <c r="J51" s="36">
+        <f t="shared" si="37"/>
+        <v>2624400000</v>
+      </c>
+      <c r="K51" s="36">
+        <f t="shared" si="37"/>
+        <v>8000</v>
+      </c>
+      <c r="L51" s="36">
+        <f t="shared" si="37"/>
+        <v>148000000</v>
+      </c>
       <c r="M51" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
@@ -7689,46 +7681,20 @@
     </row>
     <row r="52" spans="1:20" ht="18.75" customHeight="1">
       <c r="A52" s="40" t="str">
-        <f t="shared" ref="A52" si="41">IF(B53&lt;&gt;"","NL","")</f>
-        <v/>
-      </c>
-      <c r="B52" s="470"/>
-      <c r="C52" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="36">
-        <f t="shared" ref="E52:L52" si="42">SUM(E46:E49)</f>
-        <v>178400</v>
-      </c>
-      <c r="F52" s="36">
-        <f t="shared" si="42"/>
-        <v>2772400000</v>
-      </c>
-      <c r="G52" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="36">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="36">
-        <f t="shared" si="42"/>
-        <v>170400</v>
-      </c>
-      <c r="J52" s="36">
-        <f t="shared" si="42"/>
-        <v>2624400000</v>
-      </c>
-      <c r="K52" s="36">
-        <f t="shared" si="42"/>
-        <v>8000</v>
-      </c>
-      <c r="L52" s="36">
-        <f t="shared" si="42"/>
-        <v>148000000</v>
-      </c>
+        <f t="shared" ref="A52" si="38">IF(B52&lt;&gt;"","NL","")</f>
+        <v/>
+      </c>
+      <c r="B52" s="74"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
       <c r="M52" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
@@ -7743,10 +7709,10 @@
         <v>273042454</v>
       </c>
       <c r="Q52" s="226" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R52" s="226" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S52" s="226" t="s">
         <v>54</v>
@@ -7754,17 +7720,46 @@
     </row>
     <row r="53" spans="1:20" ht="18.75" customHeight="1">
       <c r="A53" s="40"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
+      <c r="B53" s="72">
+        <f>IF(C53&lt;&gt;"",ROW()-(ROW()-1),"")</f>
+        <v>1</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="439" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="46">
+        <v>4725</v>
+      </c>
+      <c r="F53" s="46">
+        <v>600463535</v>
+      </c>
+      <c r="G53" s="46">
+        <f t="shared" ref="G53:G65" si="39">SUMIFS(DSNX2,DSNX1,$C53,DSNX8,"Bộ phận SX")</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="46">
+        <f t="shared" ref="H53:H65" si="40">SUMIFS(DSNX5,DSNX1,$C53,DSNX8,"Bộ phận SX")</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="46">
+        <f t="shared" ref="I53:I65" si="41">SUMIFS(DSNX3,DSNX1,$C53,DSNX6,"632")</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="46">
+        <f t="shared" ref="J53:J65" si="42">SUMIFS(DSNX4,DSNX1,$C53,DSNX6,"632")</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="46">
+        <f t="shared" ref="K53:K65" si="43">E53+G53-I53</f>
+        <v>4725</v>
+      </c>
+      <c r="L53" s="46">
+        <f t="shared" ref="L53:L65" si="44">F53+H53-J53</f>
+        <v>600463535</v>
+      </c>
       <c r="M53" s="437" t="str">
         <f t="shared" si="7"/>
         <v>NL</v>
@@ -7788,48 +7783,48 @@
     </row>
     <row r="54" spans="1:20" ht="18.75" customHeight="1">
       <c r="A54" s="40" t="str">
-        <f>IF(B54&lt;&gt;"","TP","")</f>
+        <f>IF(B53&lt;&gt;"","TP","")</f>
         <v>TP</v>
       </c>
-      <c r="B54" s="72">
-        <f>IF(C54&lt;&gt;"",ROW()-(ROW()-1),"")</f>
-        <v>1</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>100</v>
+      <c r="B54" s="71">
+        <f>IF(C54&lt;&gt;"",B53+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="D54" s="439" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="46">
-        <v>4725</v>
-      </c>
-      <c r="F54" s="46">
-        <v>600463535</v>
+      <c r="E54" s="38">
+        <v>31675</v>
+      </c>
+      <c r="F54" s="38">
+        <v>4490555471</v>
       </c>
       <c r="G54" s="46">
-        <f t="shared" ref="G54:G66" si="43">SUMIFS(DSNX2,DSNX1,$C54,DSNX8,"Bộ phận SX")</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H54" s="46">
-        <f t="shared" ref="H54:H66" si="44">SUMIFS(DSNX5,DSNX1,$C54,DSNX8,"Bộ phận SX")</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I54" s="46">
-        <f t="shared" ref="I54:I66" si="45">SUMIFS(DSNX3,DSNX1,$C54,DSNX6,"632")</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J54" s="46">
-        <f t="shared" ref="J54:J66" si="46">SUMIFS(DSNX4,DSNX1,$C54,DSNX6,"632")</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="46">
-        <f t="shared" ref="K54:K66" si="47">E54+G54-I54</f>
-        <v>4725</v>
-      </c>
-      <c r="L54" s="46">
-        <f t="shared" ref="L54:L66" si="48">F54+H54-J54</f>
-        <v>600463535</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="38">
+        <f t="shared" si="43"/>
+        <v>31675</v>
+      </c>
+      <c r="L54" s="38">
+        <f t="shared" si="44"/>
+        <v>4490555471</v>
       </c>
       <c r="M54" s="437" t="str">
         <f t="shared" si="7"/>
@@ -7854,48 +7849,48 @@
     </row>
     <row r="55" spans="1:20" ht="18.75" customHeight="1">
       <c r="A55" s="40" t="str">
-        <f t="shared" ref="A55:A67" si="49">IF(B55&lt;&gt;"","TP","")</f>
+        <f t="shared" ref="A55:A67" si="45">IF(B54&lt;&gt;"","TP","")</f>
         <v>TP</v>
       </c>
       <c r="B55" s="71">
-        <f>IF(C55&lt;&gt;"",B54+1,"")</f>
-        <v>2</v>
+        <f t="shared" ref="B55:B65" si="46">IF(C55&lt;&gt;"",B54+1,"")</f>
+        <v>3</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D55" s="439" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="38">
-        <v>31675</v>
+        <v>20987</v>
       </c>
       <c r="F55" s="38">
-        <v>4490555471</v>
+        <v>3171039713</v>
       </c>
       <c r="G55" s="46">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="46">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="46">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="38">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="46">
+        <v>20987</v>
+      </c>
+      <c r="L55" s="38">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="46">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="38">
-        <f t="shared" si="47"/>
-        <v>31675</v>
-      </c>
-      <c r="L55" s="38">
-        <f t="shared" si="48"/>
-        <v>4490555471</v>
+        <v>3171039713</v>
       </c>
       <c r="M55" s="437" t="str">
         <f t="shared" si="7"/>
@@ -7920,48 +7915,48 @@
     </row>
     <row r="56" spans="1:20" ht="19.5" customHeight="1">
       <c r="A56" s="40" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>TP</v>
       </c>
       <c r="B56" s="71">
-        <f t="shared" ref="B56:B66" si="50">IF(C56&lt;&gt;"",B55+1,"")</f>
-        <v>3</v>
+        <f t="shared" si="46"/>
+        <v>4</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D56" s="439" t="s">
         <v>37</v>
       </c>
       <c r="E56" s="38">
-        <v>20987</v>
+        <v>122</v>
       </c>
       <c r="F56" s="38">
-        <v>3171039713</v>
+        <v>17080000</v>
       </c>
       <c r="G56" s="46">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="46">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="46">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="38">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="46">
+        <v>122</v>
+      </c>
+      <c r="L56" s="38">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="46">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="38">
-        <f t="shared" si="47"/>
-        <v>20987</v>
-      </c>
-      <c r="L56" s="38">
-        <f t="shared" si="48"/>
-        <v>3171039713</v>
+        <v>17080000</v>
       </c>
       <c r="M56" s="437" t="str">
         <f t="shared" si="7"/>
@@ -7978,48 +7973,48 @@
     </row>
     <row r="57" spans="1:20" ht="18.75" customHeight="1">
       <c r="A57" s="40" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>TP</v>
       </c>
       <c r="B57" s="71">
-        <f t="shared" si="50"/>
-        <v>4</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D57" s="439" t="s">
         <v>37</v>
       </c>
       <c r="E57" s="38">
-        <v>122</v>
+        <v>16075</v>
       </c>
       <c r="F57" s="38">
-        <v>17080000</v>
+        <v>1107185105</v>
       </c>
       <c r="G57" s="46">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="46">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="46">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="38">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="46">
+        <v>16075</v>
+      </c>
+      <c r="L57" s="38">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="46">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="38">
-        <f t="shared" si="47"/>
-        <v>122</v>
-      </c>
-      <c r="L57" s="38">
-        <f t="shared" si="48"/>
-        <v>17080000</v>
+        <v>1107185105</v>
       </c>
       <c r="M57" s="472"/>
       <c r="N57" s="70"/>
@@ -8032,55 +8027,55 @@
     </row>
     <row r="58" spans="1:20" ht="18.75" customHeight="1">
       <c r="A58" s="40" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>TP</v>
       </c>
       <c r="B58" s="71">
-        <f t="shared" si="50"/>
-        <v>5</v>
+        <f t="shared" si="46"/>
+        <v>6</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="D58" s="439" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="38">
-        <v>16075</v>
+        <v>0</v>
       </c>
       <c r="F58" s="38">
-        <v>1107185105</v>
+        <v>0</v>
       </c>
       <c r="G58" s="46">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>7100</v>
       </c>
       <c r="H58" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I58" s="46">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>7100</v>
       </c>
       <c r="J58" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K58" s="38">
-        <f t="shared" si="47"/>
-        <v>16075</v>
+        <f>E58+G58-I58</f>
+        <v>0</v>
       </c>
       <c r="L58" s="38">
-        <f t="shared" si="48"/>
-        <v>1107185105</v>
+        <f>F58+H58-J58</f>
+        <v>0</v>
       </c>
       <c r="M58" s="437" t="str">
-        <f t="shared" ref="M58:M70" si="51">IF(N62&lt;&gt;"","TP","")</f>
+        <f t="shared" ref="M58:M70" si="47">IF(N62&lt;&gt;"","TP","")</f>
         <v>TP</v>
       </c>
       <c r="N58" s="473" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P58" s="70"/>
       <c r="Q58" s="70"/>
@@ -8090,15 +8085,15 @@
     </row>
     <row r="59" spans="1:20" ht="19.5" customHeight="1">
       <c r="A59" s="40" t="str">
-        <f>IF(B59&lt;&gt;"","TP","")</f>
+        <f>IF(B58&lt;&gt;"","TP","")</f>
         <v>TP</v>
       </c>
       <c r="B59" s="71">
-        <f t="shared" si="50"/>
-        <v>6</v>
+        <f t="shared" si="46"/>
+        <v>7</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="D59" s="439" t="s">
         <v>37</v>
@@ -8110,19 +8105,19 @@
         <v>0</v>
       </c>
       <c r="G59" s="46">
-        <f t="shared" si="43"/>
-        <v>7100</v>
+        <f t="shared" si="39"/>
+        <v>12000</v>
       </c>
       <c r="H59" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I59" s="46">
-        <f t="shared" si="45"/>
-        <v>7100</v>
+        <f t="shared" si="41"/>
+        <v>12000</v>
       </c>
       <c r="J59" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K59" s="38">
@@ -8134,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="437" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>TP</v>
       </c>
       <c r="N59" s="41" t="s">
@@ -8147,15 +8142,15 @@
     </row>
     <row r="60" spans="1:20" ht="19.5" customHeight="1">
       <c r="A60" s="40" t="str">
-        <f>IF(B60&lt;&gt;"","TP","")</f>
+        <f>IF(B59&lt;&gt;"","TP","")</f>
         <v>TP</v>
       </c>
       <c r="B60" s="71">
-        <f t="shared" si="50"/>
-        <v>7</v>
+        <f t="shared" si="46"/>
+        <v>8</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="D60" s="439" t="s">
         <v>37</v>
@@ -8167,31 +8162,31 @@
         <v>0</v>
       </c>
       <c r="G60" s="46">
+        <f t="shared" si="39"/>
+        <v>4800</v>
+      </c>
+      <c r="H60" s="46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="46">
+        <f t="shared" si="41"/>
+        <v>4800</v>
+      </c>
+      <c r="J60" s="46">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="38">
         <f t="shared" si="43"/>
-        <v>12000</v>
-      </c>
-      <c r="H60" s="46">
+        <v>0</v>
+      </c>
+      <c r="L60" s="38">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="I60" s="46">
-        <f t="shared" si="45"/>
-        <v>12000</v>
-      </c>
-      <c r="J60" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="38">
-        <f>E60+G60-I60</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="38">
-        <f>F60+H60-J60</f>
-        <v>0</v>
-      </c>
       <c r="M60" s="437" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>TP</v>
       </c>
       <c r="N60" s="37" t="s">
@@ -8203,19 +8198,15 @@
     </row>
     <row r="61" spans="1:20" ht="19.5" customHeight="1">
       <c r="A61" s="40" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>TP</v>
       </c>
-      <c r="B61" s="71">
-        <f t="shared" si="50"/>
-        <v>8</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="D61" s="439" t="s">
-        <v>37</v>
-      </c>
+      <c r="B61" s="71" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="439"/>
       <c r="E61" s="38">
         <v>0</v>
       </c>
@@ -8223,31 +8214,31 @@
         <v>0</v>
       </c>
       <c r="G61" s="46">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="46">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="46">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="38">
         <f t="shared" si="43"/>
-        <v>4800</v>
-      </c>
-      <c r="H61" s="46">
+        <v>0</v>
+      </c>
+      <c r="L61" s="38">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="I61" s="46">
-        <f t="shared" si="45"/>
-        <v>4800</v>
-      </c>
-      <c r="J61" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="38">
+      <c r="M61" s="437" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="437" t="str">
-        <f t="shared" si="51"/>
         <v>TP</v>
       </c>
       <c r="N61" s="37" t="s">
@@ -8263,11 +8254,11 @@
     </row>
     <row r="62" spans="1:20" ht="19.5" customHeight="1">
       <c r="A62" s="40" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="B62" s="71" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="C62" s="37"/>
@@ -8279,31 +8270,31 @@
         <v>0</v>
       </c>
       <c r="G62" s="46">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="46">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="46">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="38">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="H62" s="46">
+      <c r="L62" s="38">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="I62" s="46">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="38">
+      <c r="M62" s="437" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="437" t="str">
-        <f t="shared" si="51"/>
         <v>TP</v>
       </c>
       <c r="N62" s="37" t="s">
@@ -8319,11 +8310,11 @@
     </row>
     <row r="63" spans="1:20" ht="20.25" customHeight="1">
       <c r="A63" s="40" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="B63" s="71" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="C63" s="37"/>
@@ -8335,31 +8326,31 @@
         <v>0</v>
       </c>
       <c r="G63" s="46">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="46">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="46">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="38">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="H63" s="46">
+      <c r="L63" s="38">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="I63" s="46">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="38">
+      <c r="M63" s="437" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="437" t="str">
-        <f t="shared" si="51"/>
         <v>TP</v>
       </c>
       <c r="N63" s="37" t="s">
@@ -8375,11 +8366,11 @@
     </row>
     <row r="64" spans="1:20" ht="20.25" customHeight="1">
       <c r="A64" s="40" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="B64" s="71" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="C64" s="37"/>
@@ -8391,31 +8382,31 @@
         <v>0</v>
       </c>
       <c r="G64" s="46">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="46">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="46">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="38">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="H64" s="46">
+      <c r="L64" s="38">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="I64" s="46">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="38">
+      <c r="M64" s="437" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="437" t="str">
-        <f t="shared" si="51"/>
         <v>TP</v>
       </c>
       <c r="N64" s="37" t="s">
@@ -8431,11 +8422,11 @@
     </row>
     <row r="65" spans="1:19" ht="20.25" customHeight="1">
       <c r="A65" s="40" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="B65" s="71" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="C65" s="37"/>
@@ -8447,31 +8438,31 @@
         <v>0</v>
       </c>
       <c r="G65" s="46">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="46">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="46">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="38">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="H65" s="46">
+      <c r="L65" s="38">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="I65" s="46">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="38">
+      <c r="M65" s="437" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="437" t="str">
-        <f t="shared" si="51"/>
         <v>TP</v>
       </c>
       <c r="N65" s="37" t="s">
@@ -8485,47 +8476,25 @@
     </row>
     <row r="66" spans="1:19" ht="20.25" customHeight="1">
       <c r="A66" s="40" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="B66" s="71" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="439"/>
-      <c r="E66" s="38">
-        <v>0</v>
-      </c>
-      <c r="F66" s="38">
-        <v>0</v>
-      </c>
-      <c r="G66" s="46">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="46">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="46">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="46">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="38">
+        <f>IF(C66&lt;&gt;"",#REF!+1,"")</f>
+        <v/>
+      </c>
+      <c r="C66" s="48"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="437" t="str">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="437" t="str">
-        <f t="shared" si="51"/>
         <v>TP</v>
       </c>
       <c r="N66" s="37" t="s">
@@ -8541,25 +8510,48 @@
     </row>
     <row r="67" spans="1:19" ht="20.25" customHeight="1">
       <c r="A67" s="40" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="B67" s="71" t="str">
-        <f>IF(C67&lt;&gt;"",#REF!+1,"")</f>
-        <v/>
-      </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="B67" s="470"/>
+      <c r="C67" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="45"/>
+      <c r="E67" s="36">
+        <f t="shared" ref="E67:L67" si="48">SUM(E53:E66)</f>
+        <v>73584</v>
+      </c>
+      <c r="F67" s="36">
+        <f t="shared" si="48"/>
+        <v>9386323824</v>
+      </c>
+      <c r="G67" s="36">
+        <f t="shared" si="48"/>
+        <v>23900</v>
+      </c>
+      <c r="H67" s="36">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="36">
+        <f t="shared" si="48"/>
+        <v>23900</v>
+      </c>
+      <c r="J67" s="36">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="36">
+        <f t="shared" si="48"/>
+        <v>73584</v>
+      </c>
+      <c r="L67" s="36">
+        <f t="shared" si="48"/>
+        <v>9386323824</v>
+      </c>
       <c r="M67" s="437" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>TP</v>
       </c>
       <c r="N67" s="76" t="s">
@@ -8575,48 +8567,22 @@
     </row>
     <row r="68" spans="1:19" ht="20.25" customHeight="1">
       <c r="A68" s="40" t="str">
-        <f>IF(B69&lt;&gt;"","TP","")</f>
-        <v/>
-      </c>
-      <c r="B68" s="470"/>
-      <c r="C68" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="45"/>
-      <c r="E68" s="36">
-        <f t="shared" ref="E68:L68" si="52">SUM(E54:E67)</f>
-        <v>73584</v>
-      </c>
-      <c r="F68" s="36">
-        <f t="shared" si="52"/>
-        <v>9386323824</v>
-      </c>
-      <c r="G68" s="36">
-        <f t="shared" si="52"/>
-        <v>23900</v>
-      </c>
-      <c r="H68" s="36">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="36">
-        <f t="shared" si="52"/>
-        <v>23900</v>
-      </c>
-      <c r="J68" s="36">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="36">
-        <f t="shared" si="52"/>
-        <v>73584</v>
-      </c>
-      <c r="L68" s="36">
-        <f t="shared" si="52"/>
-        <v>9386323824</v>
-      </c>
+        <f>IF(B68&lt;&gt;"","TP","")</f>
+        <v/>
+      </c>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
       <c r="M68" s="437" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>TP</v>
       </c>
       <c r="N68" s="76" t="s">
@@ -8631,19 +8597,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" ht="20.25" customHeight="1">
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
       <c r="M69" s="437" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>TP</v>
       </c>
       <c r="N69" s="76" t="s">
@@ -8659,7 +8614,7 @@
     </row>
     <row r="70" spans="1:19" ht="19.5" customHeight="1">
       <c r="M70" s="437" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>TP</v>
       </c>
       <c r="N70" s="47" t="s">
@@ -8674,12 +8629,24 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="19.5" customHeight="1">
+      <c r="C71" s="495"/>
+      <c r="D71" s="495"/>
+      <c r="E71" s="495"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="142"/>
+      <c r="J71" s="495" t="s">
+        <v>289</v>
+      </c>
+      <c r="K71" s="495"/>
+      <c r="L71" s="495"/>
       <c r="M71" s="437" t="str">
-        <f t="shared" ref="M71:M87" si="53">IF(N75&lt;&gt;"","VL","")</f>
+        <f t="shared" ref="M71:M87" si="49">IF(N75&lt;&gt;"","VL","")</f>
         <v>VL</v>
       </c>
       <c r="N71" s="465" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q71" s="37" t="s">
         <v>97</v>
@@ -8690,20 +8657,24 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="19.5" customHeight="1">
-      <c r="C72" s="483"/>
-      <c r="D72" s="483"/>
-      <c r="E72" s="483"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="142"/>
-      <c r="H72" s="142"/>
+      <c r="C72" s="268" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="268"/>
+      <c r="E72" s="268"/>
+      <c r="F72" s="495" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="495"/>
+      <c r="H72" s="495"/>
       <c r="I72" s="142"/>
-      <c r="J72" s="483" t="s">
-        <v>289</v>
-      </c>
-      <c r="K72" s="483"/>
-      <c r="L72" s="483"/>
+      <c r="J72" s="495" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="495"/>
+      <c r="L72" s="495"/>
       <c r="M72" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N72" s="83" t="s">
@@ -8718,24 +8689,26 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="19.5" customHeight="1">
-      <c r="C73" s="268" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="268"/>
-      <c r="E73" s="268"/>
-      <c r="F73" s="483" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" s="483"/>
-      <c r="H73" s="483"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="483" t="s">
-        <v>25</v>
-      </c>
-      <c r="K73" s="483"/>
-      <c r="L73" s="483"/>
+      <c r="C73" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="134"/>
+      <c r="F73" s="495" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="495"/>
+      <c r="H73" s="495"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="495" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" s="495"/>
+      <c r="L73" s="495"/>
       <c r="M73" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N73" s="37" t="s">
@@ -8750,26 +8723,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="19.5" customHeight="1">
-      <c r="C74" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="134" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="134"/>
-      <c r="F74" s="483" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="483"/>
-      <c r="H74" s="483"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="483" t="s">
-        <v>28</v>
-      </c>
-      <c r="K74" s="483"/>
-      <c r="L74" s="483"/>
       <c r="M74" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N74" s="37" t="s">
@@ -8785,7 +8740,7 @@
     </row>
     <row r="75" spans="1:19" ht="19.5" customHeight="1">
       <c r="M75" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N75" s="37" t="s">
@@ -8801,7 +8756,7 @@
     </row>
     <row r="76" spans="1:19" ht="19.5" customHeight="1">
       <c r="M76" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N76" s="37" t="s">
@@ -8817,7 +8772,7 @@
     </row>
     <row r="77" spans="1:19" ht="19.5" customHeight="1">
       <c r="M77" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N77" s="37" t="s">
@@ -8833,7 +8788,7 @@
     </row>
     <row r="78" spans="1:19" ht="19.5" customHeight="1">
       <c r="M78" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N78" s="37" t="s">
@@ -8849,7 +8804,7 @@
     </row>
     <row r="79" spans="1:19" ht="19.5" customHeight="1">
       <c r="M79" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N79" s="76" t="s">
@@ -8858,7 +8813,7 @@
     </row>
     <row r="80" spans="1:19" ht="19.5" customHeight="1">
       <c r="M80" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N80" s="37" t="s">
@@ -8867,7 +8822,7 @@
     </row>
     <row r="81" spans="13:14" ht="19.5" customHeight="1">
       <c r="M81" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N81" s="37" t="s">
@@ -8876,7 +8831,7 @@
     </row>
     <row r="82" spans="13:14" ht="19.5" customHeight="1">
       <c r="M82" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>VL</v>
       </c>
       <c r="N82" s="76" t="s">
@@ -8885,7 +8840,7 @@
     </row>
     <row r="83" spans="13:14" ht="19.5" customHeight="1">
       <c r="M83" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="N83" s="37" t="s">
@@ -8894,7 +8849,7 @@
     </row>
     <row r="84" spans="13:14" ht="19.5" customHeight="1">
       <c r="M84" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="N84" s="76" t="s">
@@ -8903,7 +8858,7 @@
     </row>
     <row r="85" spans="13:14" ht="19.5" customHeight="1">
       <c r="M85" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="N85" s="76" t="s">
@@ -8912,7 +8867,7 @@
     </row>
     <row r="86" spans="13:14" ht="19.5" customHeight="1">
       <c r="M86" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="N86" s="76" t="s">
@@ -8921,7 +8876,7 @@
     </row>
     <row r="87" spans="13:14" ht="19.5" customHeight="1">
       <c r="M87" s="437" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="N87" s="41"/>
@@ -8989,12 +8944,20 @@
     <sortCondition ref="C33:C52"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H3:L3"/>
@@ -9002,28 +8965,20 @@
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B6:L6"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N82">
+      <formula1>IF(RIGHT(K63,2)="NL",DSKH2,DSKH1)</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N84">
       <formula1>Loai3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N82">
-      <formula1>IF(RIGHT(K64,2)="NL",DSKH2,DSKH1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N85">
       <formula1>IF(RIGHT(#REF!,2)="NL",DSKH2,DSKH1)</formula1>
@@ -9257,7 +9212,7 @@
       </c>
       <c r="C17" s="445"/>
       <c r="D17" s="446" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP(B17,NXT!$C$12:$D$67,2,0)),"",VLOOKUP(B17,NXT!$C$12:$D$67,2,0))</f>
+        <f ca="1">IF(ISNA(VLOOKUP(B17,NXT!$C$12:$D$66,2,0)),"",VLOOKUP(B17,NXT!$C$12:$D$66,2,0))</f>
         <v>kg</v>
       </c>
       <c r="E17" s="447"/>
@@ -9285,7 +9240,7 @@
       </c>
       <c r="C18" s="445"/>
       <c r="D18" s="446" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP(B18,NXT!$C$12:$D$67,2,0)),"",VLOOKUP(B18,NXT!$C$12:$D$67,2,0))</f>
+        <f ca="1">IF(ISNA(VLOOKUP(B18,NXT!$C$12:$D$66,2,0)),"",VLOOKUP(B18,NXT!$C$12:$D$66,2,0))</f>
         <v/>
       </c>
       <c r="E18" s="447"/>
@@ -9313,7 +9268,7 @@
       </c>
       <c r="C19" s="445"/>
       <c r="D19" s="446" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP(B19,NXT!$C$12:$D$67,2,0)),"",VLOOKUP(B19,NXT!$C$12:$D$67,2,0))</f>
+        <f ca="1">IF(ISNA(VLOOKUP(B19,NXT!$C$12:$D$66,2,0)),"",VLOOKUP(B19,NXT!$C$12:$D$66,2,0))</f>
         <v/>
       </c>
       <c r="E19" s="447"/>
@@ -9341,7 +9296,7 @@
       </c>
       <c r="C20" s="445"/>
       <c r="D20" s="446" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP(B20,NXT!$C$12:$D$67,2,0)),"",VLOOKUP(B20,NXT!$C$12:$D$67,2,0))</f>
+        <f ca="1">IF(ISNA(VLOOKUP(B20,NXT!$C$12:$D$66,2,0)),"",VLOOKUP(B20,NXT!$C$12:$D$66,2,0))</f>
         <v/>
       </c>
       <c r="E20" s="447"/>
@@ -9369,7 +9324,7 @@
       </c>
       <c r="C21" s="445"/>
       <c r="D21" s="446" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP(B21,NXT!$C$12:$D$67,2,0)),"",VLOOKUP(B21,NXT!$C$12:$D$67,2,0))</f>
+        <f ca="1">IF(ISNA(VLOOKUP(B21,NXT!$C$12:$D$66,2,0)),"",VLOOKUP(B21,NXT!$C$12:$D$66,2,0))</f>
         <v/>
       </c>
       <c r="E21" s="447"/>
@@ -9397,7 +9352,7 @@
       </c>
       <c r="C22" s="445"/>
       <c r="D22" s="446" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP(B22,NXT!$C$12:$D$67,2,0)),"",VLOOKUP(B22,NXT!$C$12:$D$67,2,0))</f>
+        <f ca="1">IF(ISNA(VLOOKUP(B22,NXT!$C$12:$D$66,2,0)),"",VLOOKUP(B22,NXT!$C$12:$D$66,2,0))</f>
         <v/>
       </c>
       <c r="E22" s="447"/>
@@ -9425,7 +9380,7 @@
       </c>
       <c r="C23" s="452"/>
       <c r="D23" s="453" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP(B23,NXT!$C$12:$D$67,2,0)),"",VLOOKUP(B23,NXT!$C$12:$D$67,2,0))</f>
+        <f ca="1">IF(ISNA(VLOOKUP(B23,NXT!$C$12:$D$66,2,0)),"",VLOOKUP(B23,NXT!$C$12:$D$66,2,0))</f>
         <v/>
       </c>
       <c r="E23" s="454"/>
@@ -9563,12 +9518,12 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor indexed="58"/>
   </sheetPr>
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:O499"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15"/>
@@ -10131,7 +10086,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="24">
-        <f t="shared" ref="A13:A35" si="15">IF(E13&lt;&gt;"",MONTH(E13),"")</f>
+        <f t="shared" ref="A13:A33" si="15">IF(E13&lt;&gt;"",MONTH(E13),"")</f>
         <v>1</v>
       </c>
       <c r="B13" s="175" t="str">
@@ -10145,13 +10100,13 @@
         <v>304</v>
       </c>
       <c r="E13" s="69">
-        <v>42384</v>
+        <v>42387</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>120</v>
+        <v>40</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>292</v>
       </c>
       <c r="H13" s="176" t="s">
         <v>293</v>
@@ -10160,18 +10115,18 @@
         <v>294</v>
       </c>
       <c r="J13" s="15">
-        <v>33950</v>
+        <v>14523.81</v>
       </c>
       <c r="K13" s="15">
-        <v>125</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" ref="L13:L14" si="16">ROUND(J13*K13,0)</f>
-        <v>4243750</v>
+        <f t="shared" ref="L13" si="16">ROUND(J13*K13,0)</f>
+        <v>14523810</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15">
-        <f t="shared" ref="N13:N14" si="17">ROUND(J13*M13,0)</f>
+        <f t="shared" ref="N13" si="17">ROUND(J13*M13,0)</f>
         <v>0</v>
       </c>
       <c r="O13" s="15" t="str">
@@ -10195,13 +10150,13 @@
         <v>306</v>
       </c>
       <c r="E14" s="69">
-        <v>42387</v>
+        <v>42391</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="76" t="s">
-        <v>292</v>
+        <v>305</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>117</v>
       </c>
       <c r="H14" s="176" t="s">
         <v>293</v>
@@ -10210,18 +10165,18 @@
         <v>294</v>
       </c>
       <c r="J14" s="15">
-        <v>14523.81</v>
+        <v>14000</v>
       </c>
       <c r="K14" s="15">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L14" s="15">
-        <f t="shared" si="16"/>
-        <v>14523810</v>
+        <f t="shared" ref="L14" si="18">ROUND(J14*K14,0)</f>
+        <v>35000000</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="N14" si="19">ROUND(J14*M14,0)</f>
         <v>0</v>
       </c>
       <c r="O14" s="15" t="str">
@@ -10231,7 +10186,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A15:A26" si="20">IF(E15&lt;&gt;"",MONTH(E15),"")</f>
         <v>1</v>
       </c>
       <c r="B15" s="175" t="str">
@@ -10242,37 +10197,37 @@
         <v>177</v>
       </c>
       <c r="D15" s="172" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E15" s="69">
-        <v>42391</v>
+        <v>42371</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>117</v>
+        <v>39</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>181</v>
       </c>
       <c r="H15" s="176" t="s">
+        <v>311</v>
+      </c>
+      <c r="I15" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="I15" s="56" t="s">
-        <v>294</v>
-      </c>
       <c r="J15" s="15">
-        <v>14000</v>
-      </c>
-      <c r="K15" s="15">
-        <v>2500</v>
-      </c>
+        <v>35444.444444444445</v>
+      </c>
+      <c r="K15" s="15"/>
       <c r="L15" s="15">
-        <f t="shared" ref="L15" si="18">ROUND(J15*K15,0)</f>
-        <v>35000000</v>
-      </c>
-      <c r="M15" s="15"/>
+        <f t="shared" ref="L15:L26" si="21">ROUND(J15*K15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>100</v>
+      </c>
       <c r="N15" s="15">
-        <f t="shared" ref="N15" si="19">ROUND(J15*M15,0)</f>
-        <v>0</v>
+        <f t="shared" ref="N15:N26" si="22">ROUND(J15*M15,0)</f>
+        <v>3544444</v>
       </c>
       <c r="O15" s="15" t="str">
         <f>IF(AND(A15='BANG KE NL'!$M$11,TH!C15="NL",LEFT(D15,1)="N"),"x","")</f>
@@ -10281,7 +10236,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="24">
-        <f t="shared" ref="A16:A28" si="20">IF(E16&lt;&gt;"",MONTH(E16),"")</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B16" s="175" t="str">
@@ -10298,7 +10253,7 @@
         <v>42371</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>181</v>
@@ -10310,19 +10265,19 @@
         <v>293</v>
       </c>
       <c r="J16" s="15">
-        <v>35444.444444444445</v>
+        <v>46741.2</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15">
-        <f t="shared" ref="L16:L28" si="21">ROUND(J16*K16,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M16" s="15">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N16" s="15">
-        <f t="shared" ref="N16:N28" si="22">ROUND(J16*M16,0)</f>
-        <v>3544444</v>
+        <f t="shared" si="22"/>
+        <v>934824</v>
       </c>
       <c r="O16" s="15" t="str">
         <f>IF(AND(A16='BANG KE NL'!$M$11,TH!C16="NL",LEFT(D16,1)="N"),"x","")</f>
@@ -10348,7 +10303,7 @@
         <v>42371</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>181</v>
@@ -10360,7 +10315,7 @@
         <v>293</v>
       </c>
       <c r="J17" s="15">
-        <v>46741.2</v>
+        <v>11666.673333333334</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15">
@@ -10368,11 +10323,11 @@
         <v>0</v>
       </c>
       <c r="M17" s="15">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N17" s="15">
         <f t="shared" si="22"/>
-        <v>934824</v>
+        <v>1750001</v>
       </c>
       <c r="O17" s="15" t="str">
         <f>IF(AND(A17='BANG KE NL'!$M$11,TH!C17="NL",LEFT(D17,1)="N"),"x","")</f>
@@ -10392,13 +10347,13 @@
         <v>177</v>
       </c>
       <c r="D18" s="172" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E18" s="69">
-        <v>42371</v>
+        <v>42376</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>181</v>
@@ -10410,7 +10365,7 @@
         <v>293</v>
       </c>
       <c r="J18" s="15">
-        <v>11666.673333333334</v>
+        <v>21979.791919191921</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15">
@@ -10418,11 +10373,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N18" s="15">
         <f t="shared" si="22"/>
-        <v>1750001</v>
+        <v>2197979</v>
       </c>
       <c r="O18" s="15" t="str">
         <f>IF(AND(A18='BANG KE NL'!$M$11,TH!C18="NL",LEFT(D18,1)="N"),"x","")</f>
@@ -10448,7 +10403,7 @@
         <v>42376</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G19" s="61" t="s">
         <v>181</v>
@@ -10460,7 +10415,7 @@
         <v>293</v>
       </c>
       <c r="J19" s="15">
-        <v>21979.791919191921</v>
+        <v>14899.999259259259</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15">
@@ -10468,11 +10423,11 @@
         <v>0</v>
       </c>
       <c r="M19" s="15">
-        <v>100</v>
+        <v>810</v>
       </c>
       <c r="N19" s="15">
         <f t="shared" si="22"/>
-        <v>2197979</v>
+        <v>12068999</v>
       </c>
       <c r="O19" s="15" t="str">
         <f>IF(AND(A19='BANG KE NL'!$M$11,TH!C19="NL",LEFT(D19,1)="N"),"x","")</f>
@@ -10492,13 +10447,13 @@
         <v>177</v>
       </c>
       <c r="D20" s="172" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E20" s="69">
-        <v>42376</v>
+        <v>42384</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="G20" s="61" t="s">
         <v>181</v>
@@ -10510,7 +10465,7 @@
         <v>293</v>
       </c>
       <c r="J20" s="15">
-        <v>14899.999259259259</v>
+        <v>8500</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15">
@@ -10518,11 +10473,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="15">
-        <v>810</v>
+        <v>200</v>
       </c>
       <c r="N20" s="15">
         <f t="shared" si="22"/>
-        <v>12068999</v>
+        <v>1700000</v>
       </c>
       <c r="O20" s="15" t="str">
         <f>IF(AND(A20='BANG KE NL'!$M$11,TH!C20="NL",LEFT(D20,1)="N"),"x","")</f>
@@ -10542,13 +10497,13 @@
         <v>177</v>
       </c>
       <c r="D21" s="172" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E21" s="69">
         <v>42384</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G21" s="61" t="s">
         <v>181</v>
@@ -10560,7 +10515,7 @@
         <v>293</v>
       </c>
       <c r="J21" s="15">
-        <v>33950</v>
+        <v>323.05155766077667</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15">
@@ -10568,11 +10523,11 @@
         <v>0</v>
       </c>
       <c r="M21" s="15">
-        <v>125</v>
+        <v>1000</v>
       </c>
       <c r="N21" s="15">
         <f t="shared" si="22"/>
-        <v>4243750</v>
+        <v>323052</v>
       </c>
       <c r="O21" s="15" t="str">
         <f>IF(AND(A21='BANG KE NL'!$M$11,TH!C21="NL",LEFT(D21,1)="N"),"x","")</f>
@@ -10595,10 +10550,10 @@
         <v>317</v>
       </c>
       <c r="E22" s="69">
-        <v>42384</v>
+        <v>42388</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="G22" s="61" t="s">
         <v>181</v>
@@ -10610,7 +10565,7 @@
         <v>293</v>
       </c>
       <c r="J22" s="15">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15">
@@ -10618,11 +10573,11 @@
         <v>0</v>
       </c>
       <c r="M22" s="15">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N22" s="15">
         <f t="shared" si="22"/>
-        <v>1700000</v>
+        <v>6800000</v>
       </c>
       <c r="O22" s="15" t="str">
         <f>IF(AND(A22='BANG KE NL'!$M$11,TH!C22="NL",LEFT(D22,1)="N"),"x","")</f>
@@ -10645,10 +10600,10 @@
         <v>317</v>
       </c>
       <c r="E23" s="69">
-        <v>42384</v>
+        <v>42388</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="G23" s="61" t="s">
         <v>181</v>
@@ -10660,7 +10615,7 @@
         <v>293</v>
       </c>
       <c r="J23" s="15">
-        <v>323.05155766077667</v>
+        <v>2500</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15">
@@ -10668,11 +10623,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="15">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N23" s="15">
         <f t="shared" si="22"/>
-        <v>323052</v>
+        <v>1000000</v>
       </c>
       <c r="O23" s="15" t="str">
         <f>IF(AND(A23='BANG KE NL'!$M$11,TH!C23="NL",LEFT(D23,1)="N"),"x","")</f>
@@ -10695,10 +10650,10 @@
         <v>318</v>
       </c>
       <c r="E24" s="69">
-        <v>42388</v>
+        <v>42391</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G24" s="61" t="s">
         <v>181</v>
@@ -10710,7 +10665,7 @@
         <v>293</v>
       </c>
       <c r="J24" s="15">
-        <v>17000</v>
+        <v>18300</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15">
@@ -10718,11 +10673,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="15">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="22"/>
-        <v>6800000</v>
+        <v>11346000</v>
       </c>
       <c r="O24" s="15" t="str">
         <f>IF(AND(A24='BANG KE NL'!$M$11,TH!C24="NL",LEFT(D24,1)="N"),"x","")</f>
@@ -10742,13 +10697,13 @@
         <v>177</v>
       </c>
       <c r="D25" s="172" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E25" s="69">
-        <v>42388</v>
+        <v>42398</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G25" s="61" t="s">
         <v>181</v>
@@ -10760,7 +10715,7 @@
         <v>293</v>
       </c>
       <c r="J25" s="15">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15">
@@ -10768,11 +10723,11 @@
         <v>0</v>
       </c>
       <c r="M25" s="15">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="22"/>
-        <v>1000000</v>
+        <v>13800000</v>
       </c>
       <c r="O25" s="15" t="str">
         <f>IF(AND(A25='BANG KE NL'!$M$11,TH!C25="NL",LEFT(D25,1)="N"),"x","")</f>
@@ -10795,10 +10750,10 @@
         <v>319</v>
       </c>
       <c r="E26" s="69">
-        <v>42391</v>
+        <v>42398</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G26" s="61" t="s">
         <v>181</v>
@@ -10810,7 +10765,7 @@
         <v>293</v>
       </c>
       <c r="J26" s="15">
-        <v>18300</v>
+        <v>9500</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15">
@@ -10818,111 +10773,107 @@
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <v>620</v>
+        <v>150</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" si="22"/>
-        <v>11346000</v>
+        <v>1425000</v>
       </c>
       <c r="O26" s="15" t="str">
         <f>IF(AND(A26='BANG KE NL'!$M$11,TH!C26="NL",LEFT(D26,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" s="277" customFormat="1">
       <c r="A27" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B27" s="175" t="str">
         <f>IF(AND(MONTH(E27)='IN-NX'!$J$5,'IN-NX'!$D$7=(D27&amp;"/"&amp;C27)),"x","")</f>
         <v/>
       </c>
-      <c r="C27" s="172" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="172" t="s">
-        <v>320</v>
-      </c>
-      <c r="E27" s="69">
-        <v>42398</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" s="176" t="s">
+      <c r="C27" s="270" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="271">
+        <v>42389</v>
+      </c>
+      <c r="F27" s="272" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="272" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="464" t="s">
+        <v>310</v>
+      </c>
+      <c r="I27" s="275" t="s">
         <v>311</v>
       </c>
-      <c r="I27" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="J27" s="15">
-        <v>12000</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="15">
-        <v>1150</v>
-      </c>
-      <c r="N27" s="15">
-        <f t="shared" si="22"/>
-        <v>13800000</v>
+      <c r="J27" s="276"/>
+      <c r="K27" s="276">
+        <v>7100</v>
+      </c>
+      <c r="L27" s="276">
+        <f t="shared" ref="L27:L68" si="23">ROUND(J27*K27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="276"/>
+      <c r="N27" s="276">
+        <f t="shared" ref="N27:N68" si="24">ROUND(J27*M27,0)</f>
+        <v>0</v>
       </c>
       <c r="O27" s="15" t="str">
         <f>IF(AND(A27='BANG KE NL'!$M$11,TH!C27="NL",LEFT(D27,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" s="277" customFormat="1">
       <c r="A28" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B28" s="175" t="str">
         <f>IF(AND(MONTH(E28)='IN-NX'!$J$5,'IN-NX'!$D$7=(D28&amp;"/"&amp;C28)),"x","")</f>
         <v/>
       </c>
-      <c r="C28" s="172" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="172" t="s">
-        <v>320</v>
-      </c>
-      <c r="E28" s="69">
-        <v>42398</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="G28" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="176" t="s">
+      <c r="C28" s="270" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="270" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="271">
+        <v>42393</v>
+      </c>
+      <c r="F28" s="272" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="464" t="s">
+        <v>310</v>
+      </c>
+      <c r="I28" s="275" t="s">
         <v>311</v>
       </c>
-      <c r="I28" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="J28" s="15">
-        <v>9500</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>150</v>
-      </c>
-      <c r="N28" s="15">
-        <f t="shared" si="22"/>
-        <v>1425000</v>
+      <c r="J28" s="276"/>
+      <c r="K28" s="276">
+        <v>4800</v>
+      </c>
+      <c r="L28" s="276">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="276"/>
+      <c r="N28" s="276">
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="O28" s="15" t="str">
         <f>IF(AND(A28='BANG KE NL'!$M$11,TH!C28="NL",LEFT(D28,1)="N"),"x","")</f>
@@ -10942,13 +10893,13 @@
         <v>309</v>
       </c>
       <c r="D29" s="270" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E29" s="271">
-        <v>42389</v>
+        <v>42400</v>
       </c>
       <c r="F29" s="272" t="s">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="G29" s="272" t="s">
         <v>127</v>
@@ -10961,15 +10912,15 @@
       </c>
       <c r="J29" s="276"/>
       <c r="K29" s="276">
-        <v>7100</v>
+        <v>12000</v>
       </c>
       <c r="L29" s="276">
-        <f t="shared" ref="L29:L70" si="23">ROUND(J29*K29,0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M29" s="276"/>
       <c r="N29" s="276">
-        <f t="shared" ref="N29:N70" si="24">ROUND(J29*M29,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O29" s="15" t="str">
@@ -10990,32 +10941,32 @@
         <v>309</v>
       </c>
       <c r="D30" s="270" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E30" s="271">
-        <v>42393</v>
+        <v>42395</v>
       </c>
       <c r="F30" s="272" t="s">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="G30" s="272" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H30" s="464" t="s">
+        <v>313</v>
+      </c>
+      <c r="I30" s="275" t="s">
         <v>310</v>
       </c>
-      <c r="I30" s="275" t="s">
-        <v>311</v>
-      </c>
       <c r="J30" s="276"/>
-      <c r="K30" s="276">
-        <v>4800</v>
-      </c>
+      <c r="K30" s="276"/>
       <c r="L30" s="276">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M30" s="276"/>
+      <c r="M30" s="276">
+        <v>7100</v>
+      </c>
       <c r="N30" s="276">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -11038,32 +10989,32 @@
         <v>309</v>
       </c>
       <c r="D31" s="270" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="E31" s="271">
-        <v>42400</v>
+        <v>42395</v>
       </c>
       <c r="F31" s="272" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G31" s="272" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="H31" s="464" t="s">
+        <v>313</v>
+      </c>
+      <c r="I31" s="275" t="s">
         <v>310</v>
       </c>
-      <c r="I31" s="275" t="s">
-        <v>311</v>
-      </c>
       <c r="J31" s="276"/>
-      <c r="K31" s="276">
-        <v>12000</v>
-      </c>
+      <c r="K31" s="276"/>
       <c r="L31" s="276">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M31" s="276"/>
+      <c r="M31" s="276">
+        <v>4800</v>
+      </c>
       <c r="N31" s="276">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -11076,7 +11027,7 @@
     <row r="32" spans="1:15" s="277" customFormat="1">
       <c r="A32" s="24">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="175" t="str">
         <f>IF(AND(MONTH(E32)='IN-NX'!$J$5,'IN-NX'!$D$7=(D32&amp;"/"&amp;C32)),"x","")</f>
@@ -11089,13 +11040,13 @@
         <v>314</v>
       </c>
       <c r="E32" s="271">
-        <v>42395</v>
+        <v>42402</v>
       </c>
       <c r="F32" s="272" t="s">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="G32" s="272" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="H32" s="464" t="s">
         <v>313</v>
@@ -11106,14 +11057,14 @@
       <c r="J32" s="276"/>
       <c r="K32" s="276"/>
       <c r="L32" s="276">
-        <f t="shared" si="23"/>
+        <f>ROUND(J32*K32,0)</f>
         <v>0</v>
       </c>
       <c r="M32" s="276">
-        <v>7100</v>
+        <v>12000</v>
       </c>
       <c r="N32" s="276">
-        <f t="shared" si="24"/>
+        <f>ROUND(J32*M32,0)</f>
         <v>0</v>
       </c>
       <c r="O32" s="15" t="str">
@@ -11124,7 +11075,7 @@
     <row r="33" spans="1:15" s="277" customFormat="1">
       <c r="A33" s="24">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="175" t="str">
         <f>IF(AND(MONTH(E33)='IN-NX'!$J$5,'IN-NX'!$D$7=(D33&amp;"/"&amp;C33)),"x","")</f>
@@ -11134,32 +11085,32 @@
         <v>309</v>
       </c>
       <c r="D33" s="270" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E33" s="271">
-        <v>42395</v>
+        <v>42429</v>
       </c>
       <c r="F33" s="272" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="G33" s="272" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="H33" s="464" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I33" s="275" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J33" s="276"/>
-      <c r="K33" s="276"/>
+      <c r="K33" s="276">
+        <v>8000</v>
+      </c>
       <c r="L33" s="276">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M33" s="276">
-        <v>4800</v>
-      </c>
+      <c r="M33" s="276"/>
       <c r="N33" s="276">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -11169,96 +11120,96 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" s="277" customFormat="1">
+    <row r="34" spans="1:15">
       <c r="A34" s="24">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" ref="A34:A68" si="25">IF(E34&lt;&gt;"",MONTH(E34),"")</f>
+        <v>1</v>
       </c>
       <c r="B34" s="175" t="str">
         <f>IF(AND(MONTH(E34)='IN-NX'!$J$5,'IN-NX'!$D$7=(D34&amp;"/"&amp;C34)),"x","")</f>
         <v/>
       </c>
-      <c r="C34" s="270" t="s">
-        <v>309</v>
-      </c>
-      <c r="D34" s="270" t="s">
-        <v>314</v>
-      </c>
-      <c r="E34" s="271">
-        <v>42402</v>
-      </c>
-      <c r="F34" s="272" t="s">
-        <v>265</v>
-      </c>
-      <c r="G34" s="272" t="s">
-        <v>269</v>
-      </c>
-      <c r="H34" s="464" t="s">
-        <v>313</v>
-      </c>
-      <c r="I34" s="275" t="s">
-        <v>310</v>
-      </c>
-      <c r="J34" s="276"/>
-      <c r="K34" s="276"/>
-      <c r="L34" s="276">
-        <f>ROUND(J34*K34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="276">
-        <v>12000</v>
-      </c>
-      <c r="N34" s="276">
-        <f>ROUND(J34*M34,0)</f>
-        <v>0</v>
+      <c r="C34" s="172" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="172"/>
+      <c r="E34" s="69">
+        <v>42371</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="176" t="s">
+        <v>311</v>
+      </c>
+      <c r="I34" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="J34" s="15">
+        <v>18500</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="15">
+        <v>38400</v>
+      </c>
+      <c r="N34" s="15">
+        <f t="shared" si="24"/>
+        <v>710400000</v>
       </c>
       <c r="O34" s="15" t="str">
         <f>IF(AND(A34='BANG KE NL'!$M$11,TH!C34="NL",LEFT(D34,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" s="277" customFormat="1">
+    <row r="35" spans="1:15">
       <c r="A35" s="24">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="B35" s="175" t="str">
         <f>IF(AND(MONTH(E35)='IN-NX'!$J$5,'IN-NX'!$D$7=(D35&amp;"/"&amp;C35)),"x","")</f>
         <v/>
       </c>
-      <c r="C35" s="270" t="s">
-        <v>309</v>
-      </c>
-      <c r="D35" s="270" t="s">
-        <v>291</v>
-      </c>
-      <c r="E35" s="271">
-        <v>42429</v>
-      </c>
-      <c r="F35" s="272" t="s">
-        <v>265</v>
-      </c>
-      <c r="G35" s="272" t="s">
-        <v>274</v>
-      </c>
-      <c r="H35" s="464" t="s">
-        <v>310</v>
-      </c>
-      <c r="I35" s="275" t="s">
+      <c r="C35" s="172" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="172"/>
+      <c r="E35" s="69">
+        <v>42374</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="176" t="s">
         <v>311</v>
       </c>
-      <c r="J35" s="276"/>
-      <c r="K35" s="276">
-        <v>8000</v>
-      </c>
-      <c r="L35" s="276">
+      <c r="I35" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" s="15">
+        <v>14500</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M35" s="276"/>
-      <c r="N35" s="276">
+      <c r="M35" s="15">
+        <v>26500</v>
+      </c>
+      <c r="N35" s="15">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>384250000</v>
       </c>
       <c r="O35" s="15" t="str">
         <f>IF(AND(A35='BANG KE NL'!$M$11,TH!C35="NL",LEFT(D35,1)="N"),"x","")</f>
@@ -11267,7 +11218,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="24">
-        <f t="shared" ref="A36:A70" si="25">IF(E36&lt;&gt;"",MONTH(E36),"")</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="B36" s="175" t="str">
@@ -11279,10 +11230,10 @@
       </c>
       <c r="D36" s="172"/>
       <c r="E36" s="69">
-        <v>42371</v>
+        <v>42384</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G36" s="61" t="s">
         <v>181</v>
@@ -11291,10 +11242,10 @@
         <v>311</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J36" s="15">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15">
@@ -11302,11 +11253,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="15">
-        <v>38400</v>
+        <v>26500</v>
       </c>
       <c r="N36" s="15">
         <f t="shared" si="24"/>
-        <v>710400000</v>
+        <v>384250000</v>
       </c>
       <c r="O36" s="15" t="str">
         <f>IF(AND(A36='BANG KE NL'!$M$11,TH!C36="NL",LEFT(D36,1)="N"),"x","")</f>
@@ -11327,7 +11278,7 @@
       </c>
       <c r="D37" s="172"/>
       <c r="E37" s="69">
-        <v>42374</v>
+        <v>42390</v>
       </c>
       <c r="F37" s="61" t="s">
         <v>52</v>
@@ -11339,7 +11290,7 @@
         <v>311</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J37" s="15">
         <v>14500</v>
@@ -11375,7 +11326,7 @@
       </c>
       <c r="D38" s="172"/>
       <c r="E38" s="69">
-        <v>42384</v>
+        <v>42394</v>
       </c>
       <c r="F38" s="61" t="s">
         <v>52</v>
@@ -11387,7 +11338,7 @@
         <v>311</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J38" s="15">
         <v>14500</v>
@@ -11410,9 +11361,9 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="24">
+      <c r="A39" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="B39" s="175" t="str">
         <f>IF(AND(MONTH(E39)='IN-NX'!$J$5,'IN-NX'!$D$7=(D39&amp;"/"&amp;C39)),"x","")</f>
@@ -11422,9 +11373,7 @@
         <v>178</v>
       </c>
       <c r="D39" s="172"/>
-      <c r="E39" s="69">
-        <v>42390</v>
-      </c>
+      <c r="E39" s="69"/>
       <c r="F39" s="61" t="s">
         <v>52</v>
       </c>
@@ -11435,7 +11384,7 @@
         <v>311</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J39" s="15">
         <v>14500</v>
@@ -11446,11 +11395,11 @@
         <v>0</v>
       </c>
       <c r="M39" s="15">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="N39" s="15">
         <f t="shared" si="24"/>
-        <v>384250000</v>
+        <v>377000000</v>
       </c>
       <c r="O39" s="15" t="str">
         <f>IF(AND(A39='BANG KE NL'!$M$11,TH!C39="NL",LEFT(D39,1)="N"),"x","")</f>
@@ -11458,9 +11407,9 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="24">
+      <c r="A40" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="B40" s="175" t="str">
         <f>IF(AND(MONTH(E40)='IN-NX'!$J$5,'IN-NX'!$D$7=(D40&amp;"/"&amp;C40)),"x","")</f>
@@ -11470,35 +11419,25 @@
         <v>178</v>
       </c>
       <c r="D40" s="172"/>
-      <c r="E40" s="69">
-        <v>42394</v>
-      </c>
+      <c r="E40" s="69"/>
       <c r="F40" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" s="176" t="s">
-        <v>311</v>
-      </c>
-      <c r="I40" s="56" t="s">
-        <v>321</v>
-      </c>
+      <c r="G40" s="61"/>
+      <c r="H40" s="176"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="15">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M40" s="15">
-        <v>26500</v>
-      </c>
+      <c r="M40" s="15"/>
       <c r="N40" s="15">
         <f t="shared" si="24"/>
-        <v>384250000</v>
+        <v>0</v>
       </c>
       <c r="O40" s="15" t="str">
         <f>IF(AND(A40='BANG KE NL'!$M$11,TH!C40="NL",LEFT(D40,1)="N"),"x","")</f>
@@ -11522,29 +11461,21 @@
       <c r="F41" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="H41" s="176" t="s">
-        <v>311</v>
-      </c>
-      <c r="I41" s="56" t="s">
-        <v>321</v>
-      </c>
+      <c r="G41" s="61"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="15">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M41" s="15">
-        <v>26000</v>
-      </c>
+      <c r="M41" s="15"/>
       <c r="N41" s="15">
         <f t="shared" si="24"/>
-        <v>377000000</v>
+        <v>0</v>
       </c>
       <c r="O41" s="15" t="str">
         <f>IF(AND(A41='BANG KE NL'!$M$11,TH!C41="NL",LEFT(D41,1)="N"),"x","")</f>
@@ -11560,9 +11491,7 @@
         <f>IF(AND(MONTH(E42)='IN-NX'!$J$5,'IN-NX'!$D$7=(D42&amp;"/"&amp;C42)),"x","")</f>
         <v/>
       </c>
-      <c r="C42" s="172" t="s">
-        <v>178</v>
-      </c>
+      <c r="C42" s="172"/>
       <c r="D42" s="172"/>
       <c r="E42" s="69"/>
       <c r="F42" s="61" t="s">
@@ -11598,15 +11527,13 @@
         <f>IF(AND(MONTH(E43)='IN-NX'!$J$5,'IN-NX'!$D$7=(D43&amp;"/"&amp;C43)),"x","")</f>
         <v/>
       </c>
-      <c r="C43" s="172" t="s">
-        <v>178</v>
-      </c>
+      <c r="C43" s="172"/>
       <c r="D43" s="172"/>
       <c r="E43" s="69"/>
       <c r="F43" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="61"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="176"/>
       <c r="I43" s="56"/>
       <c r="J43" s="15">
@@ -11642,7 +11569,7 @@
       <c r="F44" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="61"/>
+      <c r="G44" s="19"/>
       <c r="H44" s="176"/>
       <c r="I44" s="56"/>
       <c r="J44" s="15">
@@ -11747,16 +11674,12 @@
       <c r="C47" s="172"/>
       <c r="D47" s="172"/>
       <c r="E47" s="69"/>
-      <c r="F47" s="61" t="s">
-        <v>52</v>
-      </c>
+      <c r="F47" s="61"/>
       <c r="G47" s="19"/>
       <c r="H47" s="176"/>
       <c r="I47" s="56"/>
-      <c r="J47" s="15">
-        <v>16000</v>
-      </c>
-      <c r="K47" s="15"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
       <c r="L47" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -11783,15 +11706,11 @@
       <c r="C48" s="172"/>
       <c r="D48" s="172"/>
       <c r="E48" s="69"/>
-      <c r="F48" s="61" t="s">
-        <v>52</v>
-      </c>
+      <c r="F48" s="61"/>
       <c r="G48" s="19"/>
       <c r="H48" s="176"/>
       <c r="I48" s="56"/>
-      <c r="J48" s="15">
-        <v>16000</v>
-      </c>
+      <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15">
         <f t="shared" si="23"/>
@@ -11884,11 +11803,11 @@
       <c r="D51" s="172"/>
       <c r="E51" s="69"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="19"/>
+      <c r="G51" s="61"/>
       <c r="H51" s="176"/>
       <c r="I51" s="56"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
       <c r="L51" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -11948,7 +11867,7 @@
       <c r="D53" s="172"/>
       <c r="E53" s="69"/>
       <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="176"/>
       <c r="I53" s="56"/>
       <c r="J53" s="15"/>
@@ -12044,7 +11963,7 @@
       <c r="D56" s="172"/>
       <c r="E56" s="69"/>
       <c r="F56" s="61"/>
-      <c r="G56" s="19"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="176"/>
       <c r="I56" s="56"/>
       <c r="J56" s="15"/>
@@ -12076,7 +11995,7 @@
       <c r="D57" s="172"/>
       <c r="E57" s="69"/>
       <c r="F57" s="61"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="61"/>
       <c r="H57" s="176"/>
       <c r="I57" s="56"/>
       <c r="J57" s="15"/>
@@ -12204,8 +12123,8 @@
       <c r="D61" s="172"/>
       <c r="E61" s="69"/>
       <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="176"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="197"/>
       <c r="I61" s="56"/>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
@@ -12236,8 +12155,8 @@
       <c r="D62" s="172"/>
       <c r="E62" s="69"/>
       <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="176"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="197"/>
       <c r="I62" s="56"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
@@ -12449,7 +12368,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="A69:A132" si="26">IF(E69&lt;&gt;"",MONTH(E69),"")</f>
         <v/>
       </c>
       <c r="B69" s="175" t="str">
@@ -12466,12 +12385,12 @@
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
       <c r="L69" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="L69:L132" si="27">ROUND(J69*K69,0)</f>
         <v>0</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="N69:N132" si="28">ROUND(J69*M69,0)</f>
         <v>0</v>
       </c>
       <c r="O69" s="15" t="str">
@@ -12481,7 +12400,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="B70" s="175" t="str">
@@ -12498,12 +12417,12 @@
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O70" s="15" t="str">
@@ -12513,7 +12432,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="24" t="str">
-        <f t="shared" ref="A71:A134" si="26">IF(E71&lt;&gt;"",MONTH(E71),"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="B71" s="175" t="str">
@@ -12530,12 +12449,12 @@
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
       <c r="L71" s="15">
-        <f t="shared" ref="L71:L134" si="27">ROUND(J71*K71,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="15">
-        <f t="shared" ref="N71:N134" si="28">ROUND(J71*M71,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O71" s="15" t="str">
@@ -13517,8 +13436,8 @@
       <c r="E102" s="69"/>
       <c r="F102" s="61"/>
       <c r="G102" s="19"/>
-      <c r="H102" s="197"/>
-      <c r="I102" s="56"/>
+      <c r="H102" s="201"/>
+      <c r="I102" s="199"/>
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
       <c r="L102" s="15">
@@ -13581,8 +13500,8 @@
       <c r="E104" s="69"/>
       <c r="F104" s="61"/>
       <c r="G104" s="19"/>
-      <c r="H104" s="201"/>
-      <c r="I104" s="199"/>
+      <c r="H104" s="197"/>
+      <c r="I104" s="56"/>
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
       <c r="L104" s="15">
@@ -14207,7 +14126,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" s="196" customFormat="1">
       <c r="A124" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -14239,7 +14158,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" s="196" customFormat="1">
       <c r="A125" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -14497,7 +14416,7 @@
     </row>
     <row r="133" spans="1:15" s="196" customFormat="1">
       <c r="A133" s="24" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="A133:A196" si="29">IF(E133&lt;&gt;"",MONTH(E133),"")</f>
         <v/>
       </c>
       <c r="B133" s="175" t="str">
@@ -14514,12 +14433,12 @@
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
       <c r="L133" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="L133:L196" si="30">ROUND(J133*K133,0)</f>
         <v>0</v>
       </c>
       <c r="M133" s="15"/>
       <c r="N133" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="N133:N196" si="31">ROUND(J133*M133,0)</f>
         <v>0</v>
       </c>
       <c r="O133" s="15" t="str">
@@ -14529,7 +14448,7 @@
     </row>
     <row r="134" spans="1:15" s="196" customFormat="1">
       <c r="A134" s="24" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="B134" s="175" t="str">
@@ -14546,12 +14465,12 @@
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
       <c r="L134" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M134" s="15"/>
       <c r="N134" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O134" s="15" t="str">
@@ -14561,7 +14480,7 @@
     </row>
     <row r="135" spans="1:15" s="196" customFormat="1">
       <c r="A135" s="24" t="str">
-        <f t="shared" ref="A135:A198" si="29">IF(E135&lt;&gt;"",MONTH(E135),"")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="B135" s="175" t="str">
@@ -14578,12 +14497,12 @@
       <c r="J135" s="15"/>
       <c r="K135" s="15"/>
       <c r="L135" s="15">
-        <f t="shared" ref="L135:L198" si="30">ROUND(J135*K135,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M135" s="15"/>
       <c r="N135" s="15">
-        <f t="shared" ref="N135:N198" si="31">ROUND(J135*M135,0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O135" s="15" t="str">
@@ -15263,7 +15182,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:15" s="196" customFormat="1">
+    <row r="157" spans="1:15">
       <c r="A157" s="24" t="str">
         <f t="shared" si="29"/>
         <v/>
@@ -15295,7 +15214,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:15" s="196" customFormat="1">
+    <row r="158" spans="1:15">
       <c r="A158" s="24" t="str">
         <f t="shared" si="29"/>
         <v/>
@@ -16219,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="15" t="str">
-        <f>IF(AND(A186='BANG KE NL'!$M$11,TH!C186="NL",LEFT(D186,1)="N"),"x","")</f>
+        <f>IF(AND(A186='BANG KE NL'!$M$11,TH!C211="NL",LEFT(D186,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16251,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="O187" s="15" t="str">
-        <f>IF(AND(A187='BANG KE NL'!$M$11,TH!C187="NL",LEFT(D187,1)="N"),"x","")</f>
+        <f>IF(AND(A187='BANG KE NL'!$M$11,TH!C212="NL",LEFT(D187,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16315,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="O189" s="15" t="str">
-        <f>IF(AND(A189='BANG KE NL'!$M$11,TH!C214="NL",LEFT(D189,1)="N"),"x","")</f>
+        <f>IF(AND(A189='BANG KE NL'!$M$11,TH!C186="NL",LEFT(D189,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16347,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="O190" s="15" t="str">
-        <f>IF(AND(A190='BANG KE NL'!$M$11,TH!C215="NL",LEFT(D190,1)="N"),"x","")</f>
+        <f>IF(AND(A190='BANG KE NL'!$M$11,TH!C187="NL",LEFT(D190,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16443,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="O193" s="15" t="str">
-        <f>IF(AND(A193='BANG KE NL'!$M$11,TH!C190="NL",LEFT(D193,1)="N"),"x","")</f>
+        <f>IF(AND(A193='BANG KE NL'!$M$11,TH!C214="NL",LEFT(D193,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16475,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="O194" s="15" t="str">
-        <f>IF(AND(A194='BANG KE NL'!$M$11,TH!C191="NL",LEFT(D194,1)="N"),"x","")</f>
+        <f>IF(AND(A194='BANG KE NL'!$M$11,TH!C215="NL",LEFT(D194,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16507,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="15" t="str">
-        <f>IF(AND(A195='BANG KE NL'!$M$11,TH!C216="NL",LEFT(D195,1)="N"),"x","")</f>
+        <f>IF(AND(A195='BANG KE NL'!$M$11,TH!C190="NL",LEFT(D195,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16539,13 +16458,13 @@
         <v>0</v>
       </c>
       <c r="O196" s="15" t="str">
-        <f>IF(AND(A196='BANG KE NL'!$M$11,TH!C217="NL",LEFT(D196,1)="N"),"x","")</f>
+        <f>IF(AND(A196='BANG KE NL'!$M$11,TH!C191="NL",LEFT(D196,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="A197:A260" si="32">IF(E197&lt;&gt;"",MONTH(E197),"")</f>
         <v/>
       </c>
       <c r="B197" s="175" t="str">
@@ -16562,12 +16481,12 @@
       <c r="J197" s="15"/>
       <c r="K197" s="15"/>
       <c r="L197" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="L197:L260" si="33">ROUND(J197*K197,0)</f>
         <v>0</v>
       </c>
       <c r="M197" s="15"/>
       <c r="N197" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="N197:N260" si="34">ROUND(J197*M197,0)</f>
         <v>0</v>
       </c>
       <c r="O197" s="15" t="str">
@@ -16577,7 +16496,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="B198" s="175" t="str">
@@ -16594,12 +16513,12 @@
       <c r="J198" s="15"/>
       <c r="K198" s="15"/>
       <c r="L198" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M198" s="15"/>
       <c r="N198" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O198" s="15" t="str">
@@ -16609,7 +16528,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="24" t="str">
-        <f t="shared" ref="A199:A262" si="32">IF(E199&lt;&gt;"",MONTH(E199),"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="B199" s="175" t="str">
@@ -16626,16 +16545,16 @@
       <c r="J199" s="15"/>
       <c r="K199" s="15"/>
       <c r="L199" s="15">
-        <f t="shared" ref="L199:L262" si="33">ROUND(J199*K199,0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M199" s="15"/>
       <c r="N199" s="15">
-        <f t="shared" ref="N199:N262" si="34">ROUND(J199*M199,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O199" s="15" t="str">
-        <f>IF(AND(A199='BANG KE NL'!$M$11,TH!C194="NL",LEFT(D199,1)="N"),"x","")</f>
+        <f>IF(AND(A199='BANG KE NL'!$M$11,TH!C216="NL",LEFT(D199,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16667,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="O200" s="15" t="str">
-        <f>IF(AND(A200='BANG KE NL'!$M$11,TH!C195="NL",LEFT(D200,1)="N"),"x","")</f>
+        <f>IF(AND(A200='BANG KE NL'!$M$11,TH!C217="NL",LEFT(D200,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16731,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="O202" s="15" t="str">
-        <f>IF(AND(A202='BANG KE NL'!$M$11,TH!C219="NL",LEFT(D202,1)="N"),"x","")</f>
+        <f>IF(AND(A202='BANG KE NL'!$M$11,TH!C194="NL",LEFT(D202,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16763,7 +16682,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="15" t="str">
-        <f>IF(AND(A203='BANG KE NL'!$M$11,TH!C220="NL",LEFT(D203,1)="N"),"x","")</f>
+        <f>IF(AND(A203='BANG KE NL'!$M$11,TH!C195="NL",LEFT(D203,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -16987,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="O210" s="15" t="str">
-        <f>IF(AND(A210='BANG KE NL'!$M$11,TH!C202="NL",LEFT(D210,1)="N"),"x","")</f>
+        <f>IF(AND(A210='BANG KE NL'!$M$11,TH!C230="NL",LEFT(D210,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17019,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="O211" s="15" t="str">
-        <f>IF(AND(A211='BANG KE NL'!$M$11,TH!C203="NL",LEFT(D211,1)="N"),"x","")</f>
+        <f>IF(AND(A211='BANG KE NL'!$M$11,TH!C231="NL",LEFT(D211,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17083,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="O213" s="15" t="str">
-        <f>IF(AND(A213='BANG KE NL'!$M$11,TH!C233="NL",LEFT(D213,1)="N"),"x","")</f>
+        <f>IF(AND(A213='BANG KE NL'!$M$11,TH!C202="NL",LEFT(D213,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17115,7 +17034,7 @@
         <v>0</v>
       </c>
       <c r="O214" s="15" t="str">
-        <f>IF(AND(A214='BANG KE NL'!$M$11,TH!C234="NL",LEFT(D214,1)="N"),"x","")</f>
+        <f>IF(AND(A214='BANG KE NL'!$M$11,TH!C203="NL",LEFT(D214,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17211,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="O217" s="15" t="str">
-        <f>IF(AND(A217='BANG KE NL'!$M$11,TH!C206="NL",LEFT(D217,1)="N"),"x","")</f>
+        <f>IF(AND(A217='BANG KE NL'!$M$11,TH!C222="NL",LEFT(D217,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17243,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="O218" s="15" t="str">
-        <f>IF(AND(A218='BANG KE NL'!$M$11,TH!C207="NL",LEFT(D218,1)="N"),"x","")</f>
+        <f>IF(AND(A218='BANG KE NL'!$M$11,TH!C223="NL",LEFT(D218,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17403,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="O223" s="15" t="str">
-        <f>IF(AND(A223='BANG KE NL'!$M$11,TH!C228="NL",LEFT(D223,1)="N"),"x","")</f>
+        <f>IF(AND(A223='BANG KE NL'!$M$11,TH!C219="NL",LEFT(D223,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17435,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="O224" s="15" t="str">
-        <f>IF(AND(A224='BANG KE NL'!$M$11,TH!C229="NL",LEFT(D224,1)="N"),"x","")</f>
+        <f>IF(AND(A224='BANG KE NL'!$M$11,TH!C206="NL",LEFT(D224,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17467,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="O225" s="15" t="str">
-        <f>IF(AND(A225='BANG KE NL'!$M$11,TH!C221="NL",LEFT(D225,1)="N"),"x","")</f>
+        <f>IF(AND(A225='BANG KE NL'!$M$11,TH!C220="NL",LEFT(D225,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17499,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="O226" s="15" t="str">
-        <f>IF(AND(A226='BANG KE NL'!$M$11,TH!C208="NL",LEFT(D226,1)="N"),"x","")</f>
+        <f>IF(AND(A226='BANG KE NL'!$M$11,TH!C207="NL",LEFT(D226,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17531,7 +17450,7 @@
         <v>0</v>
       </c>
       <c r="O227" s="15" t="str">
-        <f>IF(AND(A227='BANG KE NL'!$M$11,TH!C222="NL",LEFT(D227,1)="N"),"x","")</f>
+        <f>IF(AND(A227='BANG KE NL'!$M$11,TH!C221="NL",LEFT(D227,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17563,7 +17482,7 @@
         <v>0</v>
       </c>
       <c r="O228" s="15" t="str">
-        <f>IF(AND(A228='BANG KE NL'!$M$11,TH!C209="NL",LEFT(D228,1)="N"),"x","")</f>
+        <f>IF(AND(A228='BANG KE NL'!$M$11,TH!C208="NL",LEFT(D228,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17595,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="O229" s="15" t="str">
-        <f>IF(AND(A229='BANG KE NL'!$M$11,TH!C223="NL",LEFT(D229,1)="N"),"x","")</f>
+        <f>IF(AND(A229='BANG KE NL'!$M$11,TH!C209="NL",LEFT(D229,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17627,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="O230" s="15" t="str">
-        <f>IF(AND(A230='BANG KE NL'!$M$11,TH!C210="NL",LEFT(D230,1)="N"),"x","")</f>
+        <f>IF(AND(A230='BANG KE NL'!$M$11,TH!C233="NL",LEFT(D230,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17659,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="O231" s="15" t="str">
-        <f>IF(AND(A231='BANG KE NL'!$M$11,TH!C211="NL",LEFT(D231,1)="N"),"x","")</f>
+        <f>IF(AND(A231='BANG KE NL'!$M$11,TH!C210="NL",LEFT(D231,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17691,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="O232" s="15" t="str">
-        <f>IF(AND(A232='BANG KE NL'!$M$11,TH!C235="NL",LEFT(D232,1)="N"),"x","")</f>
+        <f>IF(AND(A232='BANG KE NL'!$M$11,TH!C228="NL",LEFT(D232,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17723,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="O233" s="15" t="str">
-        <f>IF(AND(A233='BANG KE NL'!$M$11,TH!C212="NL",LEFT(D233,1)="N"),"x","")</f>
+        <f>IF(AND(A233='BANG KE NL'!$M$11,TH!C229="NL",LEFT(D233,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17755,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="O234" s="15" t="str">
-        <f>IF(AND(A234='BANG KE NL'!$M$11,TH!C230="NL",LEFT(D234,1)="N"),"x","")</f>
+        <f>IF(AND(A234='BANG KE NL'!$M$11,TH!C234="NL",LEFT(D234,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -17787,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="O235" s="15" t="str">
-        <f>IF(AND(A235='BANG KE NL'!$M$11,TH!C231="NL",LEFT(D235,1)="N"),"x","")</f>
+        <f>IF(AND(A235='BANG KE NL'!$M$11,TH!C235="NL",LEFT(D235,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -18030,7 +17949,7 @@
       <c r="F243" s="61"/>
       <c r="G243" s="19"/>
       <c r="H243" s="197"/>
-      <c r="I243" s="56"/>
+      <c r="I243" s="197"/>
       <c r="J243" s="15"/>
       <c r="K243" s="15"/>
       <c r="L243" s="15">
@@ -18062,7 +17981,7 @@
       <c r="F244" s="61"/>
       <c r="G244" s="19"/>
       <c r="H244" s="197"/>
-      <c r="I244" s="56"/>
+      <c r="I244" s="197"/>
       <c r="J244" s="15"/>
       <c r="K244" s="15"/>
       <c r="L244" s="15">
@@ -18126,7 +18045,7 @@
       <c r="F246" s="61"/>
       <c r="G246" s="19"/>
       <c r="H246" s="197"/>
-      <c r="I246" s="197"/>
+      <c r="I246" s="56"/>
       <c r="J246" s="15"/>
       <c r="K246" s="15"/>
       <c r="L246" s="15">
@@ -18158,7 +18077,7 @@
       <c r="F247" s="61"/>
       <c r="G247" s="19"/>
       <c r="H247" s="197"/>
-      <c r="I247" s="197"/>
+      <c r="I247" s="56"/>
       <c r="J247" s="15"/>
       <c r="K247" s="15"/>
       <c r="L247" s="15">
@@ -18382,7 +18301,7 @@
       <c r="F254" s="61"/>
       <c r="G254" s="19"/>
       <c r="H254" s="197"/>
-      <c r="I254" s="56"/>
+      <c r="I254" s="197"/>
       <c r="J254" s="15"/>
       <c r="K254" s="15"/>
       <c r="L254" s="15">
@@ -18414,7 +18333,7 @@
       <c r="F255" s="61"/>
       <c r="G255" s="19"/>
       <c r="H255" s="197"/>
-      <c r="I255" s="56"/>
+      <c r="I255" s="197"/>
       <c r="J255" s="15"/>
       <c r="K255" s="15"/>
       <c r="L255" s="15">
@@ -18446,7 +18365,7 @@
       <c r="F256" s="61"/>
       <c r="G256" s="19"/>
       <c r="H256" s="197"/>
-      <c r="I256" s="197"/>
+      <c r="I256" s="56"/>
       <c r="J256" s="15"/>
       <c r="K256" s="15"/>
       <c r="L256" s="15">
@@ -18478,7 +18397,7 @@
       <c r="F257" s="61"/>
       <c r="G257" s="19"/>
       <c r="H257" s="197"/>
-      <c r="I257" s="197"/>
+      <c r="I257" s="56"/>
       <c r="J257" s="15"/>
       <c r="K257" s="15"/>
       <c r="L257" s="15">
@@ -18542,7 +18461,7 @@
       <c r="F259" s="61"/>
       <c r="G259" s="19"/>
       <c r="H259" s="197"/>
-      <c r="I259" s="56"/>
+      <c r="I259" s="197"/>
       <c r="J259" s="15"/>
       <c r="K259" s="15"/>
       <c r="L259" s="15">
@@ -18593,7 +18512,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="24" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="A261:A428" si="35">IF(E261&lt;&gt;"",MONTH(E261),"")</f>
         <v/>
       </c>
       <c r="B261" s="175" t="str">
@@ -18606,16 +18525,16 @@
       <c r="F261" s="61"/>
       <c r="G261" s="19"/>
       <c r="H261" s="197"/>
-      <c r="I261" s="197"/>
+      <c r="I261" s="56"/>
       <c r="J261" s="15"/>
       <c r="K261" s="15"/>
       <c r="L261" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="L261:L324" si="36">ROUND(J261*K261,0)</f>
         <v>0</v>
       </c>
       <c r="M261" s="15"/>
       <c r="N261" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="N261:N324" si="37">ROUND(J261*M261,0)</f>
         <v>0</v>
       </c>
       <c r="O261" s="15" t="str">
@@ -18625,7 +18544,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="24" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="B262" s="175" t="str">
@@ -18642,12 +18561,12 @@
       <c r="J262" s="15"/>
       <c r="K262" s="15"/>
       <c r="L262" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M262" s="15"/>
       <c r="N262" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O262" s="15" t="str">
@@ -18657,7 +18576,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="24" t="str">
-        <f t="shared" ref="A263:A430" si="35">IF(E263&lt;&gt;"",MONTH(E263),"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="B263" s="175" t="str">
@@ -18674,12 +18593,12 @@
       <c r="J263" s="15"/>
       <c r="K263" s="15"/>
       <c r="L263" s="15">
-        <f t="shared" ref="L263:L326" si="36">ROUND(J263*K263,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M263" s="15"/>
       <c r="N263" s="15">
-        <f t="shared" ref="N263:N326" si="37">ROUND(J263*M263,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O263" s="15" t="str">
@@ -19182,7 +19101,7 @@
       <c r="F279" s="61"/>
       <c r="G279" s="19"/>
       <c r="H279" s="197"/>
-      <c r="I279" s="56"/>
+      <c r="I279" s="197"/>
       <c r="J279" s="15"/>
       <c r="K279" s="15"/>
       <c r="L279" s="15">
@@ -19214,7 +19133,7 @@
       <c r="F280" s="61"/>
       <c r="G280" s="19"/>
       <c r="H280" s="197"/>
-      <c r="I280" s="56"/>
+      <c r="I280" s="197"/>
       <c r="J280" s="15"/>
       <c r="K280" s="15"/>
       <c r="L280" s="15">
@@ -19342,7 +19261,7 @@
       <c r="F284" s="61"/>
       <c r="G284" s="19"/>
       <c r="H284" s="197"/>
-      <c r="I284" s="197"/>
+      <c r="I284" s="56"/>
       <c r="J284" s="15"/>
       <c r="K284" s="15"/>
       <c r="L284" s="15">
@@ -19374,7 +19293,7 @@
       <c r="F285" s="61"/>
       <c r="G285" s="19"/>
       <c r="H285" s="197"/>
-      <c r="I285" s="197"/>
+      <c r="I285" s="56"/>
       <c r="J285" s="15"/>
       <c r="K285" s="15"/>
       <c r="L285" s="15">
@@ -19534,7 +19453,7 @@
       <c r="F290" s="61"/>
       <c r="G290" s="19"/>
       <c r="H290" s="197"/>
-      <c r="I290" s="56"/>
+      <c r="I290" s="197"/>
       <c r="J290" s="15"/>
       <c r="K290" s="15"/>
       <c r="L290" s="15">
@@ -19566,7 +19485,7 @@
       <c r="F291" s="61"/>
       <c r="G291" s="19"/>
       <c r="H291" s="197"/>
-      <c r="I291" s="56"/>
+      <c r="I291" s="197"/>
       <c r="J291" s="15"/>
       <c r="K291" s="15"/>
       <c r="L291" s="15">
@@ -19598,7 +19517,7 @@
       <c r="F292" s="61"/>
       <c r="G292" s="19"/>
       <c r="H292" s="197"/>
-      <c r="I292" s="197"/>
+      <c r="I292" s="56"/>
       <c r="J292" s="15"/>
       <c r="K292" s="15"/>
       <c r="L292" s="15">
@@ -19630,7 +19549,7 @@
       <c r="F293" s="61"/>
       <c r="G293" s="19"/>
       <c r="H293" s="197"/>
-      <c r="I293" s="197"/>
+      <c r="I293" s="56"/>
       <c r="J293" s="15"/>
       <c r="K293" s="15"/>
       <c r="L293" s="15">
@@ -19790,7 +19709,7 @@
       <c r="F298" s="61"/>
       <c r="G298" s="19"/>
       <c r="H298" s="197"/>
-      <c r="I298" s="56"/>
+      <c r="I298" s="197"/>
       <c r="J298" s="15"/>
       <c r="K298" s="15"/>
       <c r="L298" s="15">
@@ -19822,7 +19741,7 @@
       <c r="F299" s="61"/>
       <c r="G299" s="19"/>
       <c r="H299" s="197"/>
-      <c r="I299" s="56"/>
+      <c r="I299" s="197"/>
       <c r="J299" s="15"/>
       <c r="K299" s="15"/>
       <c r="L299" s="15">
@@ -19854,7 +19773,7 @@
       <c r="F300" s="61"/>
       <c r="G300" s="19"/>
       <c r="H300" s="197"/>
-      <c r="I300" s="197"/>
+      <c r="I300" s="56"/>
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
       <c r="L300" s="15">
@@ -19886,7 +19805,7 @@
       <c r="F301" s="61"/>
       <c r="G301" s="19"/>
       <c r="H301" s="197"/>
-      <c r="I301" s="197"/>
+      <c r="I301" s="56"/>
       <c r="J301" s="15"/>
       <c r="K301" s="15"/>
       <c r="L301" s="15">
@@ -20270,7 +20189,7 @@
       <c r="F313" s="61"/>
       <c r="G313" s="19"/>
       <c r="H313" s="197"/>
-      <c r="I313" s="56"/>
+      <c r="I313" s="197"/>
       <c r="J313" s="15"/>
       <c r="K313" s="15"/>
       <c r="L313" s="15">
@@ -20302,7 +20221,7 @@
       <c r="F314" s="61"/>
       <c r="G314" s="19"/>
       <c r="H314" s="197"/>
-      <c r="I314" s="56"/>
+      <c r="I314" s="197"/>
       <c r="J314" s="15"/>
       <c r="K314" s="15"/>
       <c r="L314" s="15">
@@ -20385,7 +20304,7 @@
     </row>
     <row r="317" spans="1:15">
       <c r="A317" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="A317:A346" si="38">IF(E317&lt;&gt;"",MONTH(E317),"")</f>
         <v/>
       </c>
       <c r="B317" s="175" t="str">
@@ -20398,7 +20317,7 @@
       <c r="F317" s="61"/>
       <c r="G317" s="19"/>
       <c r="H317" s="197"/>
-      <c r="I317" s="197"/>
+      <c r="I317" s="56"/>
       <c r="J317" s="15"/>
       <c r="K317" s="15"/>
       <c r="L317" s="15">
@@ -20417,7 +20336,7 @@
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="B318" s="175" t="str">
@@ -20430,7 +20349,7 @@
       <c r="F318" s="61"/>
       <c r="G318" s="19"/>
       <c r="H318" s="197"/>
-      <c r="I318" s="197"/>
+      <c r="I318" s="56"/>
       <c r="J318" s="15"/>
       <c r="K318" s="15"/>
       <c r="L318" s="15">
@@ -20449,7 +20368,7 @@
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="24" t="str">
-        <f t="shared" ref="A319:A348" si="38">IF(E319&lt;&gt;"",MONTH(E319),"")</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="B319" s="175" t="str">
@@ -20658,12 +20577,12 @@
       <c r="J325" s="15"/>
       <c r="K325" s="15"/>
       <c r="L325" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="L325:L388" si="39">ROUND(J325*K325,0)</f>
         <v>0</v>
       </c>
       <c r="M325" s="15"/>
       <c r="N325" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="N325:N388" si="40">ROUND(J325*M325,0)</f>
         <v>0</v>
       </c>
       <c r="O325" s="15" t="str">
@@ -20690,12 +20609,12 @@
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
       <c r="L326" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M326" s="15"/>
       <c r="N326" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O326" s="15" t="str">
@@ -20722,12 +20641,12 @@
       <c r="J327" s="15"/>
       <c r="K327" s="15"/>
       <c r="L327" s="15">
-        <f t="shared" ref="L327:L390" si="39">ROUND(J327*K327,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M327" s="15"/>
       <c r="N327" s="15">
-        <f t="shared" ref="N327:N390" si="40">ROUND(J327*M327,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O327" s="15" t="str">
@@ -20974,7 +20893,7 @@
       <c r="F335" s="61"/>
       <c r="G335" s="19"/>
       <c r="H335" s="197"/>
-      <c r="I335" s="56"/>
+      <c r="I335" s="197"/>
       <c r="J335" s="15"/>
       <c r="K335" s="15"/>
       <c r="L335" s="15">
@@ -21006,7 +20925,7 @@
       <c r="F336" s="61"/>
       <c r="G336" s="19"/>
       <c r="H336" s="197"/>
-      <c r="I336" s="56"/>
+      <c r="I336" s="197"/>
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
       <c r="L336" s="15">
@@ -21102,7 +21021,7 @@
       <c r="F339" s="61"/>
       <c r="G339" s="19"/>
       <c r="H339" s="197"/>
-      <c r="I339" s="197"/>
+      <c r="I339" s="56"/>
       <c r="J339" s="15"/>
       <c r="K339" s="15"/>
       <c r="L339" s="15">
@@ -21134,7 +21053,7 @@
       <c r="F340" s="61"/>
       <c r="G340" s="19"/>
       <c r="H340" s="197"/>
-      <c r="I340" s="197"/>
+      <c r="I340" s="56"/>
       <c r="J340" s="15"/>
       <c r="K340" s="15"/>
       <c r="L340" s="15">
@@ -21198,7 +21117,7 @@
       <c r="F342" s="61"/>
       <c r="G342" s="19"/>
       <c r="H342" s="197"/>
-      <c r="I342" s="56"/>
+      <c r="I342" s="197"/>
       <c r="J342" s="15"/>
       <c r="K342" s="15"/>
       <c r="L342" s="15">
@@ -21243,7 +21162,7 @@
         <v>0</v>
       </c>
       <c r="O343" s="15" t="str">
-        <f>IF(AND(A343='BANG KE NL'!$M$11,TH!C343="NL",LEFT(D343,1)="N"),"x","")</f>
+        <f>IF(AND(A343='BANG KE NL'!$M$11,TH!C422="NL",LEFT(D343,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -21262,7 +21181,7 @@
       <c r="F344" s="61"/>
       <c r="G344" s="19"/>
       <c r="H344" s="197"/>
-      <c r="I344" s="197"/>
+      <c r="I344" s="56"/>
       <c r="J344" s="15"/>
       <c r="K344" s="15"/>
       <c r="L344" s="15">
@@ -21275,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="O344" s="15" t="str">
-        <f>IF(AND(A344='BANG KE NL'!$M$11,TH!C344="NL",LEFT(D344,1)="N"),"x","")</f>
+        <f>IF(AND(A344='BANG KE NL'!$M$11,TH!C423="NL",LEFT(D344,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -21339,13 +21258,13 @@
         <v>0</v>
       </c>
       <c r="O346" s="15" t="str">
-        <f>IF(AND(A346='BANG KE NL'!$M$11,TH!C425="NL",LEFT(D346,1)="N"),"x","")</f>
+        <f>IF(AND(A346='BANG KE NL'!$M$11,TH!C342="NL",LEFT(D346,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:15">
       <c r="A347" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="A347:A394" si="41">IF(E347&lt;&gt;"",MONTH(E347),"")</f>
         <v/>
       </c>
       <c r="B347" s="175" t="str">
@@ -21371,13 +21290,13 @@
         <v>0</v>
       </c>
       <c r="O347" s="15" t="str">
-        <f>IF(AND(A347='BANG KE NL'!$M$11,TH!C426="NL",LEFT(D347,1)="N"),"x","")</f>
+        <f>IF(AND(A347='BANG KE NL'!$M$11,TH!C347="NL",LEFT(D347,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="B348" s="175" t="str">
@@ -21403,13 +21322,13 @@
         <v>0</v>
       </c>
       <c r="O348" s="15" t="str">
-        <f>IF(AND(A348='BANG KE NL'!$M$11,TH!C344="NL",LEFT(D348,1)="N"),"x","")</f>
+        <f>IF(AND(A348='BANG KE NL'!$M$11,TH!C348="NL",LEFT(D348,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:15">
       <c r="A349" s="24" t="str">
-        <f t="shared" ref="A349:A396" si="41">IF(E349&lt;&gt;"",MONTH(E349),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="B349" s="175" t="str">
@@ -21646,7 +21565,7 @@
       <c r="F356" s="61"/>
       <c r="G356" s="19"/>
       <c r="H356" s="197"/>
-      <c r="I356" s="56"/>
+      <c r="I356" s="197"/>
       <c r="J356" s="15"/>
       <c r="K356" s="15"/>
       <c r="L356" s="15">
@@ -21678,7 +21597,7 @@
       <c r="F357" s="61"/>
       <c r="G357" s="19"/>
       <c r="H357" s="197"/>
-      <c r="I357" s="56"/>
+      <c r="I357" s="197"/>
       <c r="J357" s="15"/>
       <c r="K357" s="15"/>
       <c r="L357" s="15">
@@ -21710,7 +21629,7 @@
       <c r="F358" s="61"/>
       <c r="G358" s="19"/>
       <c r="H358" s="197"/>
-      <c r="I358" s="197"/>
+      <c r="I358" s="56"/>
       <c r="J358" s="15"/>
       <c r="K358" s="15"/>
       <c r="L358" s="15">
@@ -21742,7 +21661,7 @@
       <c r="F359" s="61"/>
       <c r="G359" s="19"/>
       <c r="H359" s="197"/>
-      <c r="I359" s="197"/>
+      <c r="I359" s="56"/>
       <c r="J359" s="15"/>
       <c r="K359" s="15"/>
       <c r="L359" s="15">
@@ -21774,7 +21693,7 @@
       <c r="F360" s="61"/>
       <c r="G360" s="19"/>
       <c r="H360" s="197"/>
-      <c r="I360" s="56"/>
+      <c r="I360" s="197"/>
       <c r="J360" s="15"/>
       <c r="K360" s="15"/>
       <c r="L360" s="15">
@@ -21838,7 +21757,7 @@
       <c r="F362" s="61"/>
       <c r="G362" s="19"/>
       <c r="H362" s="197"/>
-      <c r="I362" s="197"/>
+      <c r="I362" s="56"/>
       <c r="J362" s="15"/>
       <c r="K362" s="15"/>
       <c r="L362" s="15">
@@ -21985,7 +21904,7 @@
     </row>
     <row r="367" spans="1:15">
       <c r="A367" s="24" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="A367:A377" si="42">IF(E367&lt;&gt;"",MONTH(E367),"")</f>
         <v/>
       </c>
       <c r="B367" s="175" t="str">
@@ -22017,7 +21936,7 @@
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="24" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="B368" s="175" t="str">
@@ -22049,7 +21968,7 @@
     </row>
     <row r="369" spans="1:15">
       <c r="A369" s="24" t="str">
-        <f t="shared" ref="A369:A379" si="42">IF(E369&lt;&gt;"",MONTH(E369),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="B369" s="175" t="str">
@@ -22081,7 +22000,7 @@
     </row>
     <row r="370" spans="1:15">
       <c r="A370" s="24" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="A370:A375" si="43">IF(E370&lt;&gt;"",MONTH(E370),"")</f>
         <v/>
       </c>
       <c r="B370" s="175" t="str">
@@ -22113,7 +22032,7 @@
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="24" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="B371" s="175" t="str">
@@ -22145,7 +22064,7 @@
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="24" t="str">
-        <f t="shared" ref="A372:A377" si="43">IF(E372&lt;&gt;"",MONTH(E372),"")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="B372" s="175" t="str">
@@ -22273,7 +22192,7 @@
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="24" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="B376" s="175" t="str">
@@ -22305,7 +22224,7 @@
     </row>
     <row r="377" spans="1:15">
       <c r="A377" s="24" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="B377" s="175" t="str">
@@ -22337,7 +22256,7 @@
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="24" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="B378" s="175" t="str">
@@ -22369,7 +22288,7 @@
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="24" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="B379" s="175" t="str">
@@ -22395,13 +22314,13 @@
         <v>0</v>
       </c>
       <c r="O379" s="15" t="str">
-        <f>IF(AND(A379='BANG KE NL'!$M$11,TH!C379="NL",LEFT(D379,1)="N"),"x","")</f>
+        <f>IF(AND(A379='BANG KE NL'!$M$11,TH!C438="NL",LEFT(D379,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:15">
       <c r="A380" s="24" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="A380" si="44">IF(E380&lt;&gt;"",MONTH(E380),"")</f>
         <v/>
       </c>
       <c r="B380" s="175" t="str">
@@ -22427,7 +22346,7 @@
         <v>0</v>
       </c>
       <c r="O380" s="15" t="str">
-        <f>IF(AND(A380='BANG KE NL'!$M$11,TH!C380="NL",LEFT(D380,1)="N"),"x","")</f>
+        <f>IF(AND(A380='BANG KE NL'!$M$11,TH!C439="NL",LEFT(D380,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -22465,7 +22384,7 @@
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="24" t="str">
-        <f t="shared" ref="A382" si="44">IF(E382&lt;&gt;"",MONTH(E382),"")</f>
+        <f t="shared" ref="A382" si="45">IF(E382&lt;&gt;"",MONTH(E382),"")</f>
         <v/>
       </c>
       <c r="B382" s="175" t="str">
@@ -22497,7 +22416,7 @@
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="24" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="A383" si="46">IF(E383&lt;&gt;"",MONTH(E383),"")</f>
         <v/>
       </c>
       <c r="B383" s="175" t="str">
@@ -22529,7 +22448,7 @@
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="24" t="str">
-        <f t="shared" ref="A384" si="45">IF(E384&lt;&gt;"",MONTH(E384),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="B384" s="175" t="str">
@@ -22561,7 +22480,7 @@
     </row>
     <row r="385" spans="1:15">
       <c r="A385" s="24" t="str">
-        <f t="shared" ref="A385" si="46">IF(E385&lt;&gt;"",MONTH(E385),"")</f>
+        <f t="shared" ref="A385" si="47">IF(E385&lt;&gt;"",MONTH(E385),"")</f>
         <v/>
       </c>
       <c r="B385" s="175" t="str">
@@ -22587,7 +22506,7 @@
         <v>0</v>
       </c>
       <c r="O385" s="15" t="str">
-        <f>IF(AND(A385='BANG KE NL'!$M$11,TH!C444="NL",LEFT(D385,1)="N"),"x","")</f>
+        <f>IF(AND(A385='BANG KE NL'!$M$11,TH!C443="NL",LEFT(D385,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -22619,13 +22538,13 @@
         <v>0</v>
       </c>
       <c r="O386" s="15" t="str">
-        <f>IF(AND(A386='BANG KE NL'!$M$11,TH!C445="NL",LEFT(D386,1)="N"),"x","")</f>
+        <f>IF(AND(A386='BANG KE NL'!$M$11,TH!C444="NL",LEFT(D386,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:15">
       <c r="A387" s="24" t="str">
-        <f t="shared" ref="A387" si="47">IF(E387&lt;&gt;"",MONTH(E387),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="B387" s="175" t="str">
@@ -22651,7 +22570,7 @@
         <v>0</v>
       </c>
       <c r="O387" s="15" t="str">
-        <f>IF(AND(A387='BANG KE NL'!$M$11,TH!C445="NL",LEFT(D387,1)="N"),"x","")</f>
+        <f>IF(AND(A387='BANG KE NL'!$M$11,TH!C387="NL",LEFT(D387,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -22683,13 +22602,13 @@
         <v>0</v>
       </c>
       <c r="O388" s="15" t="str">
-        <f>IF(AND(A388='BANG KE NL'!$M$11,TH!C446="NL",LEFT(D388,1)="N"),"x","")</f>
+        <f>IF(AND(A388='BANG KE NL'!$M$11,TH!C388="NL",LEFT(D388,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:15">
       <c r="A389" s="24" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="A389" si="48">IF(E389&lt;&gt;"",MONTH(E389),"")</f>
         <v/>
       </c>
       <c r="B389" s="175" t="str">
@@ -22706,12 +22625,12 @@
       <c r="J389" s="15"/>
       <c r="K389" s="15"/>
       <c r="L389" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="L389:L452" si="49">ROUND(J389*K389,0)</f>
         <v>0</v>
       </c>
       <c r="M389" s="15"/>
       <c r="N389" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="N389:N452" si="50">ROUND(J389*M389,0)</f>
         <v>0</v>
       </c>
       <c r="O389" s="15" t="str">
@@ -22738,12 +22657,12 @@
       <c r="J390" s="15"/>
       <c r="K390" s="15"/>
       <c r="L390" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M390" s="15"/>
       <c r="N390" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O390" s="15" t="str">
@@ -22753,7 +22672,7 @@
     </row>
     <row r="391" spans="1:15">
       <c r="A391" s="24" t="str">
-        <f t="shared" ref="A391" si="48">IF(E391&lt;&gt;"",MONTH(E391),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="B391" s="175" t="str">
@@ -22770,12 +22689,12 @@
       <c r="J391" s="15"/>
       <c r="K391" s="15"/>
       <c r="L391" s="15">
-        <f t="shared" ref="L391:L454" si="49">ROUND(J391*K391,0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M391" s="15"/>
       <c r="N391" s="15">
-        <f t="shared" ref="N391:N454" si="50">ROUND(J391*M391,0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O391" s="15" t="str">
@@ -22881,7 +22800,7 @@
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="24" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="A395:A420" si="51">IF(E395&lt;&gt;"",MONTH(E395),"")</f>
         <v/>
       </c>
       <c r="B395" s="175" t="str">
@@ -22913,7 +22832,7 @@
     </row>
     <row r="396" spans="1:15">
       <c r="A396" s="24" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="B396" s="175" t="str">
@@ -22945,7 +22864,7 @@
     </row>
     <row r="397" spans="1:15">
       <c r="A397" s="24" t="str">
-        <f t="shared" ref="A397:A422" si="51">IF(E397&lt;&gt;"",MONTH(E397),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="B397" s="175" t="str">
@@ -23598,7 +23517,7 @@
       <c r="F417" s="61"/>
       <c r="G417" s="19"/>
       <c r="H417" s="197"/>
-      <c r="I417" s="56"/>
+      <c r="I417" s="197"/>
       <c r="J417" s="15"/>
       <c r="K417" s="15"/>
       <c r="L417" s="15">
@@ -23630,7 +23549,7 @@
       <c r="F418" s="61"/>
       <c r="G418" s="19"/>
       <c r="H418" s="197"/>
-      <c r="I418" s="56"/>
+      <c r="I418" s="197"/>
       <c r="J418" s="15"/>
       <c r="K418" s="15"/>
       <c r="L418" s="15">
@@ -23711,24 +23630,24 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" s="277" customFormat="1">
       <c r="A421" s="24" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="B421" s="175" t="str">
         <f>IF(AND(MONTH(E421)='IN-NX'!$J$5,'IN-NX'!$D$7=(D421&amp;"/"&amp;C421)),"x","")</f>
         <v/>
       </c>
-      <c r="C421" s="172"/>
-      <c r="D421" s="172"/>
-      <c r="E421" s="69"/>
-      <c r="F421" s="61"/>
-      <c r="G421" s="19"/>
-      <c r="H421" s="197"/>
-      <c r="I421" s="197"/>
-      <c r="J421" s="15"/>
-      <c r="K421" s="15"/>
+      <c r="C421" s="269"/>
+      <c r="D421" s="269"/>
+      <c r="E421" s="271"/>
+      <c r="F421" s="272"/>
+      <c r="G421" s="273"/>
+      <c r="H421" s="274"/>
+      <c r="I421" s="275"/>
+      <c r="J421" s="276"/>
+      <c r="K421" s="276"/>
       <c r="L421" s="15">
         <f t="shared" si="49"/>
         <v>0</v>
@@ -23739,28 +23658,28 @@
         <v>0</v>
       </c>
       <c r="O421" s="15" t="str">
-        <f>IF(AND(A421='BANG KE NL'!$M$11,TH!C421="NL",LEFT(D421,1)="N"),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="422" spans="1:15">
+        <f>IF(AND(A421='BANG KE NL'!$M$11,TH!C445="NL",LEFT(D421,1)="N"),"x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:15" s="277" customFormat="1">
       <c r="A422" s="24" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="B422" s="175" t="str">
         <f>IF(AND(MONTH(E422)='IN-NX'!$J$5,'IN-NX'!$D$7=(D422&amp;"/"&amp;C422)),"x","")</f>
         <v/>
       </c>
-      <c r="C422" s="172"/>
-      <c r="D422" s="172"/>
-      <c r="E422" s="69"/>
-      <c r="F422" s="61"/>
-      <c r="G422" s="19"/>
-      <c r="H422" s="197"/>
-      <c r="I422" s="197"/>
-      <c r="J422" s="15"/>
-      <c r="K422" s="15"/>
+      <c r="C422" s="269"/>
+      <c r="D422" s="269"/>
+      <c r="E422" s="271"/>
+      <c r="F422" s="272"/>
+      <c r="G422" s="273"/>
+      <c r="H422" s="274"/>
+      <c r="I422" s="275"/>
+      <c r="J422" s="276"/>
+      <c r="K422" s="276"/>
       <c r="L422" s="15">
         <f t="shared" si="49"/>
         <v>0</v>
@@ -23771,7 +23690,7 @@
         <v>0</v>
       </c>
       <c r="O422" s="15" t="str">
-        <f>IF(AND(A422='BANG KE NL'!$M$11,TH!C422="NL",LEFT(D422,1)="N"),"x","")</f>
+        <f>IF(AND(A422='BANG KE NL'!$M$11,TH!C446="NL",LEFT(D422,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -23789,7 +23708,7 @@
       <c r="E423" s="271"/>
       <c r="F423" s="272"/>
       <c r="G423" s="273"/>
-      <c r="H423" s="274"/>
+      <c r="H423" s="278"/>
       <c r="I423" s="275"/>
       <c r="J423" s="276"/>
       <c r="K423" s="276"/>
@@ -23821,7 +23740,7 @@
       <c r="E424" s="271"/>
       <c r="F424" s="272"/>
       <c r="G424" s="273"/>
-      <c r="H424" s="274"/>
+      <c r="H424" s="278"/>
       <c r="I424" s="275"/>
       <c r="J424" s="276"/>
       <c r="K424" s="276"/>
@@ -23885,7 +23804,7 @@
       <c r="E426" s="271"/>
       <c r="F426" s="272"/>
       <c r="G426" s="273"/>
-      <c r="H426" s="278"/>
+      <c r="H426" s="274"/>
       <c r="I426" s="275"/>
       <c r="J426" s="276"/>
       <c r="K426" s="276"/>
@@ -23917,7 +23836,7 @@
       <c r="E427" s="271"/>
       <c r="F427" s="272"/>
       <c r="G427" s="273"/>
-      <c r="H427" s="278"/>
+      <c r="H427" s="274"/>
       <c r="I427" s="275"/>
       <c r="J427" s="276"/>
       <c r="K427" s="276"/>
@@ -23931,7 +23850,7 @@
         <v>0</v>
       </c>
       <c r="O427" s="15" t="str">
-        <f>IF(AND(A427='BANG KE NL'!$M$11,TH!C451="NL",LEFT(D427,1)="N"),"x","")</f>
+        <f>IF(AND(A427='BANG KE NL'!$M$11,TH!C427="NL",LEFT(D427,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
@@ -23963,13 +23882,13 @@
         <v>0</v>
       </c>
       <c r="O428" s="15" t="str">
-        <f>IF(AND(A428='BANG KE NL'!$M$11,TH!C452="NL",LEFT(D428,1)="N"),"x","")</f>
+        <f>IF(AND(A428='BANG KE NL'!$M$11,TH!C428="NL",LEFT(D428,1)="N"),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="429" spans="1:15" s="277" customFormat="1">
       <c r="A429" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="A429:A488" si="52">IF(E429&lt;&gt;"",MONTH(E429),"")</f>
         <v/>
       </c>
       <c r="B429" s="175" t="str">
@@ -24001,7 +23920,7 @@
     </row>
     <row r="430" spans="1:15" s="277" customFormat="1">
       <c r="A430" s="24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="B430" s="175" t="str">
@@ -24033,7 +23952,7 @@
     </row>
     <row r="431" spans="1:15" s="277" customFormat="1">
       <c r="A431" s="24" t="str">
-        <f t="shared" ref="A431:A490" si="52">IF(E431&lt;&gt;"",MONTH(E431),"")</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="B431" s="175" t="str">
@@ -24141,7 +24060,7 @@
       <c r="E434" s="271"/>
       <c r="F434" s="272"/>
       <c r="G434" s="273"/>
-      <c r="H434" s="274"/>
+      <c r="H434" s="278"/>
       <c r="I434" s="275"/>
       <c r="J434" s="276"/>
       <c r="K434" s="276"/>
@@ -24173,7 +24092,7 @@
       <c r="E435" s="271"/>
       <c r="F435" s="272"/>
       <c r="G435" s="273"/>
-      <c r="H435" s="274"/>
+      <c r="H435" s="278"/>
       <c r="I435" s="275"/>
       <c r="J435" s="276"/>
       <c r="K435" s="276"/>
@@ -24269,7 +24188,7 @@
       <c r="E438" s="271"/>
       <c r="F438" s="272"/>
       <c r="G438" s="273"/>
-      <c r="H438" s="278"/>
+      <c r="H438" s="274"/>
       <c r="I438" s="275"/>
       <c r="J438" s="276"/>
       <c r="K438" s="276"/>
@@ -24301,7 +24220,7 @@
       <c r="E439" s="271"/>
       <c r="F439" s="272"/>
       <c r="G439" s="273"/>
-      <c r="H439" s="278"/>
+      <c r="H439" s="274"/>
       <c r="I439" s="275"/>
       <c r="J439" s="276"/>
       <c r="K439" s="276"/>
@@ -24333,7 +24252,7 @@
       <c r="E440" s="271"/>
       <c r="F440" s="272"/>
       <c r="G440" s="273"/>
-      <c r="H440" s="274"/>
+      <c r="H440" s="278"/>
       <c r="I440" s="275"/>
       <c r="J440" s="276"/>
       <c r="K440" s="276"/>
@@ -24365,7 +24284,7 @@
       <c r="E441" s="271"/>
       <c r="F441" s="272"/>
       <c r="G441" s="273"/>
-      <c r="H441" s="274"/>
+      <c r="H441" s="278"/>
       <c r="I441" s="275"/>
       <c r="J441" s="276"/>
       <c r="K441" s="276"/>
@@ -24681,11 +24600,11 @@
         <v/>
       </c>
       <c r="C451" s="269"/>
-      <c r="D451" s="269"/>
+      <c r="D451" s="270"/>
       <c r="E451" s="271"/>
       <c r="F451" s="272"/>
       <c r="G451" s="273"/>
-      <c r="H451" s="278"/>
+      <c r="H451" s="274"/>
       <c r="I451" s="275"/>
       <c r="J451" s="276"/>
       <c r="K451" s="276"/>
@@ -24754,12 +24673,12 @@
       <c r="J453" s="276"/>
       <c r="K453" s="276"/>
       <c r="L453" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="L453:L488" si="53">ROUND(J453*K453,0)</f>
         <v>0</v>
       </c>
       <c r="M453" s="15"/>
       <c r="N453" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="N453:N488" si="54">ROUND(J453*M453,0)</f>
         <v>0</v>
       </c>
       <c r="O453" s="15" t="str">
@@ -24777,21 +24696,21 @@
         <v/>
       </c>
       <c r="C454" s="269"/>
-      <c r="D454" s="269"/>
+      <c r="D454" s="270"/>
       <c r="E454" s="271"/>
       <c r="F454" s="272"/>
       <c r="G454" s="273"/>
-      <c r="H454" s="278"/>
+      <c r="H454" s="274"/>
       <c r="I454" s="275"/>
       <c r="J454" s="276"/>
       <c r="K454" s="276"/>
       <c r="L454" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M454" s="15"/>
       <c r="N454" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O454" s="15" t="str">
@@ -24818,12 +24737,12 @@
       <c r="J455" s="276"/>
       <c r="K455" s="276"/>
       <c r="L455" s="15">
-        <f t="shared" ref="L455:L490" si="53">ROUND(J455*K455,0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M455" s="15"/>
       <c r="N455" s="15">
-        <f t="shared" ref="N455:N490" si="54">ROUND(J455*M455,0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O455" s="15" t="str">
@@ -24937,11 +24856,11 @@
         <v/>
       </c>
       <c r="C459" s="269"/>
-      <c r="D459" s="270"/>
+      <c r="D459" s="269"/>
       <c r="E459" s="271"/>
       <c r="F459" s="272"/>
       <c r="G459" s="273"/>
-      <c r="H459" s="274"/>
+      <c r="H459" s="278"/>
       <c r="I459" s="275"/>
       <c r="J459" s="276"/>
       <c r="K459" s="276"/>
@@ -24969,11 +24888,11 @@
         <v/>
       </c>
       <c r="C460" s="269"/>
-      <c r="D460" s="270"/>
+      <c r="D460" s="269"/>
       <c r="E460" s="271"/>
       <c r="F460" s="272"/>
       <c r="G460" s="273"/>
-      <c r="H460" s="274"/>
+      <c r="H460" s="278"/>
       <c r="I460" s="275"/>
       <c r="J460" s="276"/>
       <c r="K460" s="276"/>
@@ -25128,12 +25047,12 @@
         <f>IF(AND(MONTH(E465)='IN-NX'!$J$5,'IN-NX'!$D$7=(D465&amp;"/"&amp;C465)),"x","")</f>
         <v/>
       </c>
-      <c r="C465" s="269"/>
-      <c r="D465" s="269"/>
+      <c r="C465" s="270"/>
+      <c r="D465" s="270"/>
       <c r="E465" s="271"/>
       <c r="F465" s="272"/>
       <c r="G465" s="273"/>
-      <c r="H465" s="278"/>
+      <c r="H465" s="274"/>
       <c r="I465" s="275"/>
       <c r="J465" s="276"/>
       <c r="K465" s="276"/>
@@ -25160,12 +25079,12 @@
         <f>IF(AND(MONTH(E466)='IN-NX'!$J$5,'IN-NX'!$D$7=(D466&amp;"/"&amp;C466)),"x","")</f>
         <v/>
       </c>
-      <c r="C466" s="269"/>
-      <c r="D466" s="269"/>
+      <c r="C466" s="270"/>
+      <c r="D466" s="270"/>
       <c r="E466" s="271"/>
       <c r="F466" s="272"/>
       <c r="G466" s="273"/>
-      <c r="H466" s="278"/>
+      <c r="H466" s="274"/>
       <c r="I466" s="275"/>
       <c r="J466" s="276"/>
       <c r="K466" s="276"/>
@@ -25887,114 +25806,50 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:15" s="277" customFormat="1">
-      <c r="A489" s="24" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="B489" s="175" t="str">
-        <f>IF(AND(MONTH(E489)='IN-NX'!$J$5,'IN-NX'!$D$7=(D489&amp;"/"&amp;C489)),"x","")</f>
-        <v/>
-      </c>
-      <c r="C489" s="270"/>
-      <c r="D489" s="270"/>
-      <c r="E489" s="271"/>
-      <c r="F489" s="272"/>
-      <c r="G489" s="273"/>
-      <c r="H489" s="274"/>
-      <c r="I489" s="275"/>
-      <c r="J489" s="276"/>
-      <c r="K489" s="276"/>
-      <c r="L489" s="15">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="M489" s="15"/>
-      <c r="N489" s="15">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="O489" s="15" t="str">
-        <f>IF(AND(A489='BANG KE NL'!$M$11,TH!C489="NL",LEFT(D489,1)="N"),"x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="1:15" s="277" customFormat="1">
-      <c r="A490" s="24" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="B490" s="175" t="str">
-        <f>IF(AND(MONTH(E490)='IN-NX'!$J$5,'IN-NX'!$D$7=(D490&amp;"/"&amp;C490)),"x","")</f>
-        <v/>
-      </c>
-      <c r="C490" s="270"/>
-      <c r="D490" s="270"/>
-      <c r="E490" s="271"/>
-      <c r="F490" s="272"/>
-      <c r="G490" s="273"/>
-      <c r="H490" s="274"/>
-      <c r="I490" s="275"/>
-      <c r="J490" s="276"/>
-      <c r="K490" s="276"/>
-      <c r="L490" s="15">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="M490" s="15"/>
-      <c r="N490" s="15">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="O490" s="15" t="str">
-        <f>IF(AND(A490='BANG KE NL'!$M$11,TH!C490="NL",LEFT(D490,1)="N"),"x","")</f>
-        <v/>
-      </c>
+    <row r="489" spans="1:15">
+      <c r="L489" s="26"/>
+    </row>
+    <row r="490" spans="1:15">
+      <c r="L490" s="26"/>
+      <c r="N490" s="200"/>
     </row>
     <row r="491" spans="1:15">
       <c r="L491" s="26"/>
     </row>
     <row r="492" spans="1:15">
       <c r="L492" s="26"/>
-      <c r="N492" s="200"/>
     </row>
     <row r="493" spans="1:15">
       <c r="L493" s="26"/>
+      <c r="N493" s="26">
+        <f>SUBTOTAL(9,N126:N492)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="494" spans="1:15">
       <c r="L494" s="26"/>
     </row>
     <row r="495" spans="1:15">
       <c r="L495" s="26"/>
-      <c r="N495" s="26">
-        <f>SUBTOTAL(9,N128:N494)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="496" spans="1:15">
       <c r="L496" s="26"/>
     </row>
     <row r="497" spans="12:14">
-      <c r="L497" s="26"/>
+      <c r="L497" s="26">
+        <f>SUBTOTAL(9,L5:L496)</f>
+        <v>208226239</v>
+      </c>
+      <c r="N497" s="26"/>
     </row>
     <row r="498" spans="12:14">
-      <c r="L498" s="26"/>
+      <c r="N498" s="26"/>
     </row>
     <row r="499" spans="12:14">
-      <c r="L499" s="26">
-        <f>SUBTOTAL(9,L5:L498)</f>
-        <v>212469989</v>
-      </c>
-      <c r="N499" s="26"/>
-    </row>
-    <row r="500" spans="12:14">
-      <c r="N500" s="26"/>
-    </row>
-    <row r="501" spans="12:14">
-      <c r="N501" s="200"/>
+      <c r="N499" s="200"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:O490"/>
+  <autoFilter ref="A4:O488"/>
   <sortState ref="A187:O234">
     <sortCondition ref="H187:H234"/>
   </sortState>
@@ -26013,13 +25868,13 @@
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 G16:G65618">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G13">
+      <formula1>IF(RIGHT(D5,2)="NL",DSKH2,DSKH1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 G15:G65616">
       <formula1>Loai3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G14">
-      <formula1>IF(RIGHT(D5,2)="NL",DSKH2,DSKH1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F65618">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F65616">
       <formula1>Loai2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -26083,12 +25938,12 @@
       <c r="D2" s="3"/>
       <c r="E2" s="57"/>
       <c r="F2" s="8"/>
-      <c r="J2" s="514" t="s">
+      <c r="J2" s="512" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="514"/>
-      <c r="L2" s="514"/>
-      <c r="M2" s="514"/>
+      <c r="K2" s="512"/>
+      <c r="L2" s="512"/>
+      <c r="M2" s="512"/>
       <c r="N2" s="202"/>
     </row>
     <row r="3" spans="1:17" s="6" customFormat="1" ht="16.5" customHeight="1">
@@ -26099,12 +25954,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="58"/>
       <c r="F3" s="1"/>
-      <c r="J3" s="515" t="s">
+      <c r="J3" s="513" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="515"/>
-      <c r="L3" s="515"/>
-      <c r="M3" s="515"/>
+      <c r="K3" s="513"/>
+      <c r="L3" s="513"/>
+      <c r="M3" s="513"/>
       <c r="N3" s="203"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="16.5" customHeight="1">
@@ -26113,44 +25968,44 @@
       <c r="D4" s="1"/>
       <c r="E4" s="58"/>
       <c r="F4" s="1"/>
-      <c r="J4" s="515"/>
-      <c r="K4" s="515"/>
-      <c r="L4" s="515"/>
-      <c r="M4" s="515"/>
+      <c r="J4" s="513"/>
+      <c r="K4" s="513"/>
+      <c r="L4" s="513"/>
+      <c r="M4" s="513"/>
       <c r="N4" s="203"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="B5" s="516" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="516"/>
-      <c r="D5" s="516"/>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="516"/>
-      <c r="J5" s="516"/>
-      <c r="K5" s="516"/>
-      <c r="L5" s="516"/>
-      <c r="M5" s="516"/>
+      <c r="B5" s="514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="514"/>
+      <c r="D5" s="514"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="514"/>
+      <c r="J5" s="514"/>
+      <c r="K5" s="514"/>
+      <c r="L5" s="514"/>
+      <c r="M5" s="514"/>
       <c r="N5" s="204"/>
     </row>
     <row r="6" spans="1:17" s="28" customFormat="1" ht="12.75">
-      <c r="B6" s="517" t="s">
+      <c r="B6" s="515" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="517"/>
-      <c r="D6" s="517"/>
-      <c r="E6" s="517"/>
-      <c r="F6" s="517"/>
-      <c r="G6" s="517"/>
-      <c r="H6" s="517"/>
-      <c r="I6" s="517"/>
-      <c r="J6" s="517"/>
-      <c r="K6" s="517"/>
-      <c r="L6" s="517"/>
-      <c r="M6" s="517"/>
+      <c r="C6" s="515"/>
+      <c r="D6" s="515"/>
+      <c r="E6" s="515"/>
+      <c r="F6" s="515"/>
+      <c r="G6" s="515"/>
+      <c r="H6" s="515"/>
+      <c r="I6" s="515"/>
+      <c r="J6" s="515"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="515"/>
+      <c r="M6" s="515"/>
       <c r="N6" s="205"/>
     </row>
     <row r="7" spans="1:17">
@@ -26182,11 +26037,11 @@
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="513" t="s">
+      <c r="J8" s="509" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="513"/>
-      <c r="L8" s="513"/>
+      <c r="K8" s="509"/>
+      <c r="L8" s="509"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
     </row>
@@ -26208,10 +26063,10 @@
       <c r="A10" s="500" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="512" t="s">
+      <c r="B10" s="517" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="512"/>
+      <c r="C10" s="517"/>
       <c r="D10" s="499" t="s">
         <v>2</v>
       </c>
@@ -26328,11 +26183,11 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="144">
-        <f>VLOOKUP($J$8,NXT!$C$12:$L$67,3,0)</f>
+        <f>VLOOKUP($J$8,NXT!$C$12:$L$66,3,0)</f>
         <v>300</v>
       </c>
       <c r="L13" s="144">
-        <f>VLOOKUP($J$8,NXT!$C$12:$L$67,4,0)</f>
+        <f>VLOOKUP($J$8,NXT!$C$12:$L$66,4,0)</f>
         <v>3500002</v>
       </c>
       <c r="M13" s="16"/>
@@ -26397,7 +26252,7 @@
       </c>
       <c r="B15" s="145" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(_DNL1),"",OFFSET(TH!D$1,SMALL(_DNL1,ROWS($1:2)),)&amp;"/"&amp;OFFSET(TH!C$1,SMALL(_DNL1,ROWS($1:2)),))</f>
-        <v>N06/VL</v>
+        <v>N05/VL</v>
       </c>
       <c r="C15" s="146">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(_DNL1),"",OFFSET(TH!E$1,SMALL(_DNL1,ROWS($1:2)),))</f>
@@ -27304,60 +27159,60 @@
       <c r="G35" s="27"/>
       <c r="H35" s="10"/>
       <c r="I35" s="29"/>
-      <c r="J35" s="509" t="s">
+      <c r="J35" s="516" t="s">
         <v>289</v>
       </c>
-      <c r="K35" s="509"/>
-      <c r="L35" s="509"/>
-      <c r="M35" s="509"/>
+      <c r="K35" s="516"/>
+      <c r="L35" s="516"/>
+      <c r="M35" s="516"/>
       <c r="N35" s="213"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="509" t="s">
+      <c r="B36" s="516" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="509"/>
-      <c r="D36" s="509"/>
-      <c r="E36" s="509" t="s">
+      <c r="C36" s="516"/>
+      <c r="D36" s="516"/>
+      <c r="E36" s="516" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="509"/>
-      <c r="G36" s="509"/>
-      <c r="H36" s="509"/>
-      <c r="I36" s="509"/>
-      <c r="J36" s="509" t="s">
+      <c r="F36" s="516"/>
+      <c r="G36" s="516"/>
+      <c r="H36" s="516"/>
+      <c r="I36" s="516"/>
+      <c r="J36" s="516" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="509"/>
-      <c r="L36" s="509"/>
-      <c r="M36" s="509"/>
+      <c r="K36" s="516"/>
+      <c r="L36" s="516"/>
+      <c r="M36" s="516"/>
       <c r="N36" s="213"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="509" t="s">
+      <c r="B37" s="516" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="509" t="s">
+      <c r="C37" s="516" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="509" t="s">
+      <c r="D37" s="516" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="509" t="s">
+      <c r="E37" s="516" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="509"/>
-      <c r="G37" s="509"/>
-      <c r="H37" s="509" t="s">
+      <c r="F37" s="516"/>
+      <c r="G37" s="516"/>
+      <c r="H37" s="516" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="509"/>
-      <c r="J37" s="509" t="s">
+      <c r="I37" s="516"/>
+      <c r="J37" s="516" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="509"/>
-      <c r="L37" s="509"/>
-      <c r="M37" s="509"/>
+      <c r="K37" s="516"/>
+      <c r="L37" s="516"/>
+      <c r="M37" s="516"/>
       <c r="N37" s="213"/>
     </row>
     <row r="38" spans="2:14">
@@ -27371,14 +27226,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B37:D37"/>
@@ -27392,6 +27239,14 @@
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:I36"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="B14:G30 I14:M30">
@@ -27564,7 +27419,7 @@
       </c>
       <c r="B8" s="101"/>
       <c r="C8" s="90" t="str">
-        <f>VLOOKUP($E$7,NXT!$C$12:$L$68,2,0)</f>
+        <f>VLOOKUP($E$7,NXT!$C$12:$L$67,2,0)</f>
         <v>kg</v>
       </c>
       <c r="D8" s="101"/>
@@ -27689,7 +27544,7 @@
       <c r="G13" s="117"/>
       <c r="H13" s="117"/>
       <c r="I13" s="118">
-        <f>VLOOKUP($E$7,NXT!$C$12:$L$68,3,0)</f>
+        <f>VLOOKUP($E$7,NXT!$C$12:$L$67,3,0)</f>
         <v>450</v>
       </c>
       <c r="J13" s="113"/>
@@ -28470,12 +28325,12 @@
       <c r="D36" s="129"/>
       <c r="E36" s="103"/>
       <c r="F36" s="94"/>
-      <c r="G36" s="483" t="s">
+      <c r="G36" s="495" t="s">
         <v>289</v>
       </c>
-      <c r="H36" s="483"/>
-      <c r="I36" s="483"/>
-      <c r="J36" s="483"/>
+      <c r="H36" s="495"/>
+      <c r="I36" s="495"/>
+      <c r="J36" s="495"/>
       <c r="K36" s="134"/>
     </row>
     <row r="37" spans="1:11" ht="15">
@@ -34993,7 +34848,7 @@
         <v>238</v>
       </c>
       <c r="K6" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L6" s="301" t="s">
         <v>239</v>
@@ -35799,7 +35654,7 @@
         <v>238</v>
       </c>
       <c r="K27" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L27" s="301" t="s">
         <v>239</v>
@@ -36402,7 +36257,7 @@
         <v>238</v>
       </c>
       <c r="K45" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L45" s="301" t="s">
         <v>239</v>
@@ -36513,7 +36368,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="474" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C47" s="315">
         <v>11</v>
@@ -37179,7 +37034,7 @@
         <v>238</v>
       </c>
       <c r="K67" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L67" s="301" t="s">
         <v>239</v>
@@ -37704,7 +37559,7 @@
         <v>238</v>
       </c>
       <c r="K89" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L89" s="301" t="s">
         <v>239</v>
@@ -38187,7 +38042,7 @@
         <v>238</v>
       </c>
       <c r="K109" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L109" s="301" t="s">
         <v>239</v>
@@ -38903,7 +38758,7 @@
         <v>238</v>
       </c>
       <c r="K137" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L137" s="301" t="s">
         <v>239</v>
@@ -39512,7 +39367,7 @@
         <v>238</v>
       </c>
       <c r="K160" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L160" s="301" t="s">
         <v>239</v>
@@ -40207,7 +40062,7 @@
         <v>238</v>
       </c>
       <c r="K187" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L187" s="301" t="s">
         <v>239</v>
@@ -40963,7 +40818,7 @@
         <v>238</v>
       </c>
       <c r="K214" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L214" s="301" t="s">
         <v>239</v>
@@ -41715,7 +41570,7 @@
         <v>238</v>
       </c>
       <c r="K240" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L240" s="301" t="s">
         <v>239</v>
@@ -42474,7 +42329,7 @@
         <v>238</v>
       </c>
       <c r="K265" s="302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L265" s="301" t="s">
         <v>239</v>
